--- a/Erhobene Daten/Auswertung/Auswertungen.xlsx
+++ b/Erhobene Daten/Auswertung/Auswertungen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul Krause\Documents\GitHub\Witality\Erhobene Daten\Auswertung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulk\Documents\Witality-Android\Erhobene Daten\Auswertung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF279723-2E2F-4EBD-93CC-72831C1732DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66C2633-8A7D-4C66-B7A6-2B61DEEFF68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rot" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="141">
   <si>
     <t>Absolut</t>
   </si>
@@ -203,9 +203,6 @@
     <t>Meine Aufmerksamkeit war von der virtuellen Welt völlig in Bann gezogen.</t>
   </si>
   <si>
-    <t>Ich fühle mich frisch und ausgeruht.</t>
-  </si>
-  <si>
     <t>Mittleres gelb</t>
   </si>
   <si>
@@ -459,6 +456,9 @@
   </si>
   <si>
     <t>in Minuten</t>
+  </si>
+  <si>
+    <t>Sensorik</t>
   </si>
 </sst>
 </file>
@@ -947,11 +947,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1314,61 +1315,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:X39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="20" width="5.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="20" width="4.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4" t="s">
+      <c r="L2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="L3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4" t="s">
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="L3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1427,7 +1428,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1458,39 +1459,39 @@
       <c r="J5">
         <v>19</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="4">
         <f>B5/B8</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="4">
         <f>C5/C8</f>
         <v>0.375</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="4">
         <f>D5/D8</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="4">
         <f>E5/E8</f>
         <v>0.5</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="4">
         <f>F5/F8</f>
         <v>0.5</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="4">
         <f t="shared" ref="Q5:T5" si="0">G5/G8</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5" s="4">
         <f>H5/H8</f>
         <v>0.81818181818181823</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5" s="4">
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
-      <c r="T5" s="1">
+      <c r="T5" s="4">
         <f t="shared" si="0"/>
         <v>0.76</v>
       </c>
@@ -1498,7 +1499,7 @@
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1529,44 +1530,44 @@
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="4">
         <f t="shared" ref="L6:T6" si="1">B6/B8</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="4">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="4">
         <f t="shared" si="1"/>
         <v>0.15</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="4">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="4">
         <f t="shared" si="1"/>
         <v>0.58333333333333337</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6" s="4">
         <f t="shared" si="1"/>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6" s="4">
         <f t="shared" si="1"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="T6" s="1">
+      <c r="T6" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1597,44 +1598,44 @@
       <c r="J7">
         <v>6</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="4">
         <f t="shared" ref="L7:T7" si="2">B7/B8</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="4">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="4">
         <f t="shared" si="2"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="4">
         <f t="shared" si="2"/>
         <v>0.35</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="4">
         <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7" s="4">
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7" s="4">
         <f t="shared" si="2"/>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7" s="4">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="T7" s="1">
+      <c r="T7" s="4">
         <f t="shared" si="2"/>
         <v>0.24</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1665,22 +1666,42 @@
       <c r="J8">
         <v>25</v>
       </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1711,44 +1732,44 @@
       <c r="J11">
         <v>8</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="4">
         <f>B11/B25</f>
         <v>0</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="4">
         <f t="shared" ref="M11:T11" si="3">C11/C25</f>
         <v>0.125</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="4">
         <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11" s="4">
         <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R11" s="4">
         <f t="shared" si="3"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="S11" s="1">
+      <c r="S11" s="4">
         <f t="shared" si="3"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="T11" s="1">
+      <c r="T11" s="4">
         <f t="shared" si="3"/>
         <v>0.32</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1779,44 +1800,44 @@
       <c r="J12">
         <v>8</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="4">
         <f>B12/B25</f>
         <v>0</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="4">
         <f t="shared" ref="M12:T12" si="4">C12/C25</f>
         <v>0.375</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N12" s="4">
         <f t="shared" si="4"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="4">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="4">
         <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Q12" s="4">
         <f t="shared" si="4"/>
         <v>0.41666666666666669</v>
       </c>
-      <c r="R12" s="1">
+      <c r="R12" s="4">
         <f t="shared" si="4"/>
         <v>0.54545454545454541</v>
       </c>
-      <c r="S12" s="1">
+      <c r="S12" s="4">
         <f t="shared" si="4"/>
         <v>0.6333333333333333</v>
       </c>
-      <c r="T12" s="1">
+      <c r="T12" s="4">
         <f t="shared" si="4"/>
         <v>0.32</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1847,44 +1868,44 @@
       <c r="J13">
         <v>6</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="4">
         <f>B13/B25</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="4">
         <f t="shared" ref="M13:T13" si="5">C13/C25</f>
         <v>0</v>
       </c>
-      <c r="N13" s="1">
+      <c r="N13" s="4">
         <f t="shared" si="5"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="4">
         <f t="shared" si="5"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q13" s="4">
         <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R13" s="4">
         <f t="shared" si="5"/>
         <v>0.63636363636363635</v>
       </c>
-      <c r="S13" s="1">
+      <c r="S13" s="4">
         <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
-      <c r="T13" s="1">
+      <c r="T13" s="4">
         <f t="shared" si="5"/>
         <v>0.24</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1915,44 +1936,44 @@
       <c r="J14">
         <v>4</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="4">
         <f>B14/B25</f>
         <v>1</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="4">
         <f t="shared" ref="M14:T14" si="6">C14/C25</f>
         <v>0.5</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N14" s="4">
         <f t="shared" si="6"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="4">
         <f t="shared" si="6"/>
         <v>0.65</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14" s="4">
         <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14" s="4">
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="R14" s="1">
+      <c r="R14" s="4">
         <f t="shared" si="6"/>
         <v>0.45454545454545453</v>
       </c>
-      <c r="S14" s="1">
+      <c r="S14" s="4">
         <f t="shared" si="6"/>
         <v>0.53333333333333333</v>
       </c>
-      <c r="T14" s="1">
+      <c r="T14" s="4">
         <f t="shared" si="6"/>
         <v>0.16</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1983,44 +2004,44 @@
       <c r="J15">
         <v>12</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="4">
         <f>B15/B25</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="4">
         <f t="shared" ref="M15:T15" si="7">C15/C25</f>
         <v>0.625</v>
       </c>
-      <c r="N15" s="1">
+      <c r="N15" s="4">
         <f t="shared" si="7"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="4">
         <f t="shared" si="7"/>
         <v>0.05</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15" s="4">
         <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15" s="4">
         <f t="shared" si="7"/>
         <v>0.58333333333333337</v>
       </c>
-      <c r="R15" s="1">
+      <c r="R15" s="4">
         <f t="shared" si="7"/>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="S15" s="1">
+      <c r="S15" s="4">
         <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
-      <c r="T15" s="1">
+      <c r="T15" s="4">
         <f t="shared" si="7"/>
         <v>0.48</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2051,44 +2072,44 @@
       <c r="J16">
         <v>8</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16" s="4">
         <f>B16/B25</f>
         <v>0</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16" s="4">
         <f t="shared" ref="M16:T16" si="8">C16/C25</f>
         <v>0.625</v>
       </c>
-      <c r="N16" s="1">
+      <c r="N16" s="4">
         <f t="shared" si="8"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16" s="4">
         <f t="shared" si="8"/>
         <v>0.65</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16" s="4">
         <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q16" s="4">
         <f t="shared" si="8"/>
         <v>0.41666666666666669</v>
       </c>
-      <c r="R16" s="1">
+      <c r="R16" s="4">
         <f t="shared" si="8"/>
         <v>0.54545454545454541</v>
       </c>
-      <c r="S16" s="1">
+      <c r="S16" s="4">
         <f t="shared" si="8"/>
         <v>0.73333333333333328</v>
       </c>
-      <c r="T16" s="1">
+      <c r="T16" s="4">
         <f t="shared" si="8"/>
         <v>0.32</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2119,44 +2140,44 @@
       <c r="J17">
         <v>4</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17" s="4">
         <f>B17/B25</f>
         <v>0</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17" s="4">
         <f t="shared" ref="M17:T17" si="9">C17/C25</f>
         <v>0.25</v>
       </c>
-      <c r="N17" s="1">
+      <c r="N17" s="4">
         <f t="shared" si="9"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O17" s="4">
         <f t="shared" si="9"/>
         <v>0.05</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P17" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="Q17" s="4">
         <f t="shared" si="9"/>
         <v>0.25</v>
       </c>
-      <c r="R17" s="1">
+      <c r="R17" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="S17" s="1">
+      <c r="S17" s="4">
         <f t="shared" si="9"/>
         <v>0.23333333333333334</v>
       </c>
-      <c r="T17" s="1">
+      <c r="T17" s="4">
         <f t="shared" si="9"/>
         <v>0.16</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2187,44 +2208,44 @@
       <c r="J18">
         <v>8</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="4">
         <f>B18/B25</f>
         <v>0</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18" s="4">
         <f t="shared" ref="M18:T18" si="10">C18/C25</f>
         <v>0.25</v>
       </c>
-      <c r="N18" s="1">
+      <c r="N18" s="4">
         <f t="shared" si="10"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O18" s="4">
         <f t="shared" si="10"/>
         <v>0.15</v>
       </c>
-      <c r="P18" s="1">
+      <c r="P18" s="4">
         <f t="shared" si="10"/>
         <v>0.375</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Q18" s="4">
         <f t="shared" si="10"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="R18" s="1">
+      <c r="R18" s="4">
         <f t="shared" si="10"/>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="S18" s="1">
+      <c r="S18" s="4">
         <f t="shared" si="10"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="T18" s="1">
+      <c r="T18" s="4">
         <f t="shared" si="10"/>
         <v>0.32</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2255,44 +2276,44 @@
       <c r="J19">
         <v>3</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19" s="4">
         <f>B19/B25</f>
         <v>0</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19" s="4">
         <f t="shared" ref="M19:T19" si="11">C19/C25</f>
         <v>0.125</v>
       </c>
-      <c r="N19" s="1">
+      <c r="N19" s="4">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19" s="4">
         <f t="shared" si="11"/>
         <v>0.4</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P19" s="4">
         <f t="shared" si="11"/>
         <v>0.25</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q19" s="4">
         <f t="shared" si="11"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="R19" s="1">
+      <c r="R19" s="4">
         <f t="shared" si="11"/>
         <v>0.63636363636363635</v>
       </c>
-      <c r="S19" s="1">
+      <c r="S19" s="4">
         <f t="shared" si="11"/>
         <v>0.3</v>
       </c>
-      <c r="T19" s="1">
+      <c r="T19" s="4">
         <f t="shared" si="11"/>
         <v>0.12</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2323,44 +2344,44 @@
       <c r="J20">
         <v>13</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="4">
         <f>B20/B25</f>
         <v>0</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20" s="4">
         <f t="shared" ref="M20:T20" si="12">C20/C25</f>
         <v>0.125</v>
       </c>
-      <c r="N20" s="1">
+      <c r="N20" s="4">
         <f t="shared" si="12"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O20" s="4">
         <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P20" s="4">
         <f t="shared" si="12"/>
         <v>0.375</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q20" s="4">
         <f t="shared" si="12"/>
         <v>0.41666666666666669</v>
       </c>
-      <c r="R20" s="1">
+      <c r="R20" s="4">
         <f t="shared" si="12"/>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="S20" s="1">
+      <c r="S20" s="4">
         <f t="shared" si="12"/>
         <v>0.1</v>
       </c>
-      <c r="T20" s="1">
+      <c r="T20" s="4">
         <f t="shared" si="12"/>
         <v>0.52</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2391,44 +2412,44 @@
       <c r="J21">
         <v>16</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21" s="4">
         <f>B21/B25</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21" s="4">
         <f t="shared" ref="M21:T21" si="13">C21/C25</f>
         <v>0.5</v>
       </c>
-      <c r="N21" s="1">
+      <c r="N21" s="4">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21" s="4">
         <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P21" s="4">
         <f t="shared" si="13"/>
         <v>0.875</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="Q21" s="4">
         <f t="shared" si="13"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="R21" s="1">
+      <c r="R21" s="4">
         <f t="shared" si="13"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="S21" s="1">
+      <c r="S21" s="4">
         <f t="shared" si="13"/>
         <v>0.6333333333333333</v>
       </c>
-      <c r="T21" s="1">
+      <c r="T21" s="4">
         <f t="shared" si="13"/>
         <v>0.64</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2459,44 +2480,44 @@
       <c r="J22">
         <v>3</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22" s="4">
         <f>B22/B25</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22" s="4">
         <f t="shared" ref="M22:T22" si="14">C22/C25</f>
         <v>0.5</v>
       </c>
-      <c r="N22" s="1">
+      <c r="N22" s="4">
         <f t="shared" si="14"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O22" s="4">
         <f t="shared" si="14"/>
         <v>0.4</v>
       </c>
-      <c r="P22" s="1">
+      <c r="P22" s="4">
         <f t="shared" si="14"/>
         <v>0.25</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="Q22" s="4">
         <f t="shared" si="14"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="R22" s="1">
+      <c r="R22" s="4">
         <f t="shared" si="14"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="S22" s="1">
+      <c r="S22" s="4">
         <f t="shared" si="14"/>
         <v>0.53333333333333333</v>
       </c>
-      <c r="T22" s="1">
+      <c r="T22" s="4">
         <f t="shared" si="14"/>
         <v>0.12</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2527,44 +2548,44 @@
       <c r="J23">
         <v>11</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23" s="4">
         <f>B23/B25</f>
         <v>0</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23" s="4">
         <f t="shared" ref="M23:T23" si="15">C23/C25</f>
         <v>0.25</v>
       </c>
-      <c r="N23" s="1">
+      <c r="N23" s="4">
         <f t="shared" si="15"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O23" s="4">
         <f t="shared" si="15"/>
         <v>0.25</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P23" s="4">
         <f t="shared" si="15"/>
         <v>0.125</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="Q23" s="4">
         <f t="shared" si="15"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="R23" s="1">
+      <c r="R23" s="4">
         <f t="shared" si="15"/>
         <v>0.36363636363636365</v>
       </c>
-      <c r="S23" s="1">
+      <c r="S23" s="4">
         <f t="shared" si="15"/>
         <v>0.13333333333333333</v>
       </c>
-      <c r="T23" s="1">
+      <c r="T23" s="4">
         <f t="shared" si="15"/>
         <v>0.44</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2595,44 +2616,44 @@
       <c r="J24">
         <v>0</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L24" s="4">
         <f>B24/B25</f>
         <v>0</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M24" s="4">
         <f t="shared" ref="M24:T24" si="16">C24/C25</f>
         <v>0</v>
       </c>
-      <c r="N24" s="1">
+      <c r="N24" s="4">
         <f t="shared" si="16"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="O24" s="1">
+      <c r="O24" s="4">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P24" s="1">
+      <c r="P24" s="4">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="Q24" s="4">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="R24" s="1">
+      <c r="R24" s="4">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="S24" s="1">
+      <c r="S24" s="4">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="T24" s="1">
+      <c r="T24" s="4">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -2663,22 +2684,42 @@
       <c r="J25">
         <v>25</v>
       </c>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -2709,44 +2750,44 @@
       <c r="J28">
         <v>8</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L28" s="4">
         <f>B28/B39</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M28" s="4">
         <f t="shared" ref="M28:T28" si="17">C28/C39</f>
         <v>0.375</v>
       </c>
-      <c r="N28" s="1">
+      <c r="N28" s="4">
         <f t="shared" si="17"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="O28" s="1">
+      <c r="O28" s="4">
         <f t="shared" si="17"/>
         <v>0.35</v>
       </c>
-      <c r="P28" s="1">
+      <c r="P28" s="4">
         <f t="shared" si="17"/>
         <v>0.375</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="Q28" s="4">
         <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
-      <c r="R28" s="1">
+      <c r="R28" s="4">
         <f t="shared" si="17"/>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="S28" s="1">
+      <c r="S28" s="4">
         <f t="shared" si="17"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="T28" s="1">
+      <c r="T28" s="4">
         <f t="shared" si="17"/>
         <v>0.32</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -2777,44 +2818,44 @@
       <c r="J29">
         <v>11</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L29" s="4">
         <f>B29/B39</f>
         <v>0</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M29" s="4">
         <f t="shared" ref="M29:T29" si="18">C29/C39</f>
         <v>0.375</v>
       </c>
-      <c r="N29" s="1">
+      <c r="N29" s="4">
         <f t="shared" si="18"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="O29" s="1">
+      <c r="O29" s="4">
         <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
-      <c r="P29" s="1">
+      <c r="P29" s="4">
         <f t="shared" si="18"/>
         <v>0.5</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="Q29" s="4">
         <f t="shared" si="18"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="R29" s="1">
+      <c r="R29" s="4">
         <f t="shared" si="18"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="S29" s="1">
+      <c r="S29" s="4">
         <f t="shared" si="18"/>
         <v>0.46666666666666667</v>
       </c>
-      <c r="T29" s="1">
+      <c r="T29" s="4">
         <f t="shared" si="18"/>
         <v>0.44</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -2845,44 +2886,44 @@
       <c r="J30">
         <v>7</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L30" s="4">
         <f>B30/B39</f>
         <v>0</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M30" s="4">
         <f t="shared" ref="M30:T30" si="19">C30/C39</f>
         <v>0.125</v>
       </c>
-      <c r="N30" s="1">
+      <c r="N30" s="4">
         <f t="shared" si="19"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="O30" s="1">
+      <c r="O30" s="4">
         <f t="shared" si="19"/>
         <v>0.25</v>
       </c>
-      <c r="P30" s="1">
+      <c r="P30" s="4">
         <f t="shared" si="19"/>
         <v>0.125</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="Q30" s="4">
         <f t="shared" si="19"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="R30" s="1">
+      <c r="R30" s="4">
         <f t="shared" si="19"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="S30" s="1">
+      <c r="S30" s="4">
         <f t="shared" si="19"/>
         <v>0.2</v>
       </c>
-      <c r="T30" s="1">
+      <c r="T30" s="4">
         <f t="shared" si="19"/>
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -2913,44 +2954,44 @@
       <c r="J31">
         <v>10</v>
       </c>
-      <c r="L31" s="1">
+      <c r="L31" s="4">
         <f>B31/B39</f>
         <v>1</v>
       </c>
-      <c r="M31" s="1">
+      <c r="M31" s="4">
         <f t="shared" ref="M31:T31" si="20">C31/C39</f>
         <v>0.625</v>
       </c>
-      <c r="N31" s="1">
+      <c r="N31" s="4">
         <f t="shared" si="20"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="O31" s="1">
+      <c r="O31" s="4">
         <f t="shared" si="20"/>
         <v>0.5</v>
       </c>
-      <c r="P31" s="1">
+      <c r="P31" s="4">
         <f t="shared" si="20"/>
         <v>0.375</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="Q31" s="4">
         <f t="shared" si="20"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="R31" s="1">
+      <c r="R31" s="4">
         <f t="shared" si="20"/>
         <v>0.54545454545454541</v>
       </c>
-      <c r="S31" s="1">
+      <c r="S31" s="4">
         <f t="shared" si="20"/>
         <v>0.23333333333333334</v>
       </c>
-      <c r="T31" s="1">
+      <c r="T31" s="4">
         <f t="shared" si="20"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -2981,44 +3022,44 @@
       <c r="J32">
         <v>4</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L32" s="4">
         <f>B32/B39</f>
         <v>0</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M32" s="4">
         <f t="shared" ref="M32:T32" si="21">C32/C39</f>
         <v>0</v>
       </c>
-      <c r="N32" s="1">
+      <c r="N32" s="4">
         <f t="shared" si="21"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="O32" s="1">
+      <c r="O32" s="4">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="P32" s="1">
+      <c r="P32" s="4">
         <f t="shared" si="21"/>
         <v>0.125</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="Q32" s="4">
         <f t="shared" si="21"/>
         <v>0.5</v>
       </c>
-      <c r="R32" s="1">
+      <c r="R32" s="4">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="S32" s="1">
+      <c r="S32" s="4">
         <f t="shared" si="21"/>
         <v>0.2</v>
       </c>
-      <c r="T32" s="1">
+      <c r="T32" s="4">
         <f t="shared" si="21"/>
         <v>0.16</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -3049,44 +3090,44 @@
       <c r="J33">
         <v>10</v>
       </c>
-      <c r="L33" s="1">
+      <c r="L33" s="4">
         <f>B33/B39</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="M33" s="1">
+      <c r="M33" s="4">
         <f t="shared" ref="M33:T33" si="22">C33/C39</f>
         <v>0.75</v>
       </c>
-      <c r="N33" s="1">
+      <c r="N33" s="4">
         <f t="shared" si="22"/>
         <v>0.5</v>
       </c>
-      <c r="O33" s="1">
+      <c r="O33" s="4">
         <f t="shared" si="22"/>
         <v>0.25</v>
       </c>
-      <c r="P33" s="1">
+      <c r="P33" s="4">
         <f t="shared" si="22"/>
         <v>0.625</v>
       </c>
-      <c r="Q33" s="1">
+      <c r="Q33" s="4">
         <f t="shared" si="22"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="R33" s="1">
+      <c r="R33" s="4">
         <f t="shared" si="22"/>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="S33" s="1">
+      <c r="S33" s="4">
         <f t="shared" si="22"/>
         <v>0.6333333333333333</v>
       </c>
-      <c r="T33" s="1">
+      <c r="T33" s="4">
         <f t="shared" si="22"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>30</v>
       </c>
@@ -3117,44 +3158,44 @@
       <c r="J34">
         <v>12</v>
       </c>
-      <c r="L34" s="1">
+      <c r="L34" s="4">
         <f>B34/B39</f>
         <v>1</v>
       </c>
-      <c r="M34" s="1">
+      <c r="M34" s="4">
         <f t="shared" ref="M34:T34" si="23">C34/C39</f>
         <v>0.25</v>
       </c>
-      <c r="N34" s="1">
+      <c r="N34" s="4">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="O34" s="1">
+      <c r="O34" s="4">
         <f t="shared" si="23"/>
         <v>0.35</v>
       </c>
-      <c r="P34" s="1">
+      <c r="P34" s="4">
         <f t="shared" si="23"/>
         <v>0.125</v>
       </c>
-      <c r="Q34" s="1">
+      <c r="Q34" s="4">
         <f t="shared" si="23"/>
         <v>0.58333333333333337</v>
       </c>
-      <c r="R34" s="1">
+      <c r="R34" s="4">
         <f t="shared" si="23"/>
         <v>0.45454545454545453</v>
       </c>
-      <c r="S34" s="1">
+      <c r="S34" s="4">
         <f t="shared" si="23"/>
         <v>0.46666666666666667</v>
       </c>
-      <c r="T34" s="1">
+      <c r="T34" s="4">
         <f t="shared" si="23"/>
         <v>0.48</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>31</v>
       </c>
@@ -3185,44 +3226,44 @@
       <c r="J35">
         <v>11</v>
       </c>
-      <c r="L35" s="1">
+      <c r="L35" s="4">
         <f>B35/B39</f>
         <v>0</v>
       </c>
-      <c r="M35" s="1">
+      <c r="M35" s="4">
         <f t="shared" ref="M35:T35" si="24">C35/C39</f>
         <v>0.375</v>
       </c>
-      <c r="N35" s="1">
+      <c r="N35" s="4">
         <f t="shared" si="24"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="O35" s="1">
+      <c r="O35" s="4">
         <f t="shared" si="24"/>
         <v>0.2</v>
       </c>
-      <c r="P35" s="1">
+      <c r="P35" s="4">
         <f t="shared" si="24"/>
         <v>0.25</v>
       </c>
-      <c r="Q35" s="1">
+      <c r="Q35" s="4">
         <f t="shared" si="24"/>
         <v>0.25</v>
       </c>
-      <c r="R35" s="1">
+      <c r="R35" s="4">
         <f t="shared" si="24"/>
         <v>0.36363636363636365</v>
       </c>
-      <c r="S35" s="1">
+      <c r="S35" s="4">
         <f t="shared" si="24"/>
         <v>0.26666666666666666</v>
       </c>
-      <c r="T35" s="1">
+      <c r="T35" s="4">
         <f t="shared" si="24"/>
         <v>0.44</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -3253,44 +3294,44 @@
       <c r="J36">
         <v>0</v>
       </c>
-      <c r="L36" s="1">
+      <c r="L36" s="4">
         <f>B36/B39</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="M36" s="1">
+      <c r="M36" s="4">
         <f t="shared" ref="M36:T36" si="25">C36/C39</f>
         <v>0.125</v>
       </c>
-      <c r="N36" s="1">
+      <c r="N36" s="4">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="O36" s="1">
+      <c r="O36" s="4">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="P36" s="1">
+      <c r="P36" s="4">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="Q36" s="1">
+      <c r="Q36" s="4">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="R36" s="1">
+      <c r="R36" s="4">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="S36" s="1">
+      <c r="S36" s="4">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="T36" s="1">
+      <c r="T36" s="4">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>33</v>
       </c>
@@ -3321,44 +3362,44 @@
       <c r="J37">
         <v>2</v>
       </c>
-      <c r="L37" s="1">
+      <c r="L37" s="4">
         <f>B37/B39</f>
         <v>0</v>
       </c>
-      <c r="M37" s="1">
+      <c r="M37" s="4">
         <f t="shared" ref="M37:T37" si="26">C37/C39</f>
         <v>0</v>
       </c>
-      <c r="N37" s="1">
+      <c r="N37" s="4">
         <f t="shared" si="26"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="O37" s="1">
+      <c r="O37" s="4">
         <f t="shared" si="26"/>
         <v>0.6</v>
       </c>
-      <c r="P37" s="1">
+      <c r="P37" s="4">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="Q37" s="1">
+      <c r="Q37" s="4">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="R37" s="1">
+      <c r="R37" s="4">
         <f t="shared" si="26"/>
         <v>0.45454545454545453</v>
       </c>
-      <c r="S37" s="1">
+      <c r="S37" s="4">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="T37" s="1">
+      <c r="T37" s="4">
         <f t="shared" si="26"/>
         <v>0.08</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>34</v>
       </c>
@@ -3389,44 +3430,44 @@
       <c r="J38">
         <v>13</v>
       </c>
-      <c r="L38" s="1">
+      <c r="L38" s="4">
         <f>B38/B39</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="M38" s="1">
+      <c r="M38" s="4">
         <f t="shared" ref="M38:T38" si="27">C38/C39</f>
         <v>0.625</v>
       </c>
-      <c r="N38" s="1">
+      <c r="N38" s="4">
         <f t="shared" si="27"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="O38" s="1">
+      <c r="O38" s="4">
         <f t="shared" si="27"/>
         <v>0.4</v>
       </c>
-      <c r="P38" s="1">
+      <c r="P38" s="4">
         <f t="shared" si="27"/>
         <v>0.875</v>
       </c>
-      <c r="Q38" s="1">
+      <c r="Q38" s="4">
         <f t="shared" si="27"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="R38" s="1">
+      <c r="R38" s="4">
         <f t="shared" si="27"/>
         <v>0.36363636363636365</v>
       </c>
-      <c r="S38" s="1">
+      <c r="S38" s="4">
         <f t="shared" si="27"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="T38" s="1">
+      <c r="T38" s="4">
         <f t="shared" si="27"/>
         <v>0.52</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -3726,60 +3767,60 @@
   <dimension ref="A3:Z37"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AF10" sqref="AF10"/>
+      <selection activeCell="AC12" sqref="AC12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5.36328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.36328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.36328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.36328125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.36328125" bestFit="1" customWidth="1"/>
-    <col min="21" max="26" width="4.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="26" width="4.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4" t="s">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="O3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4" t="s">
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="O3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3856,9 +3897,9 @@
         <v>597</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3945,9 +3986,9 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4034,9 +4075,9 @@
         <v>0.53846153846153844</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7">
         <v>9</v>
@@ -4123,7 +4164,7 @@
         <v>0.38461538461538464</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -4163,8 +4204,34 @@
       <c r="M8">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -4177,10 +4244,13 @@
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -4267,9 +4337,9 @@
         <v>0.38461538461538464</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -4356,9 +4426,9 @@
         <v>0.38461538461538464</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -4445,9 +4515,9 @@
         <v>0.53846153846153844</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -4534,7 +4604,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -4623,7 +4693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -4712,7 +4782,7 @@
         <v>0.69230769230769229</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -4801,9 +4871,9 @@
         <v>0.15384615384615385</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -4890,9 +4960,9 @@
         <v>0.38461538461538464</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -4979,9 +5049,9 @@
         <v>0.23076923076923078</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -5068,9 +5138,9 @@
         <v>0.23076923076923078</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -5157,7 +5227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -5246,7 +5316,7 @@
         <v>0.23076923076923078</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -5335,7 +5405,7 @@
         <v>0.53846153846153844</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -5375,8 +5445,34 @@
       <c r="M24">
         <v>13</v>
       </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -5389,8 +5485,11 @@
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -5479,7 +5578,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -5568,7 +5667,7 @@
         <v>0.38461538461538464</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -5657,7 +5756,7 @@
         <v>0.84615384615384615</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -5746,7 +5845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -5835,7 +5934,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -5924,7 +6023,7 @@
         <v>0.46153846153846156</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -6013,7 +6112,7 @@
         <v>0.15384615384615385</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -6102,9 +6201,9 @@
         <v>0.38461538461538464</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -6191,7 +6290,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -6280,7 +6379,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -6768,465 +6867,916 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="Q42" sqref="Q42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>36</v>
       </c>
       <c r="B2">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
       <c r="B3">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>38</v>
       </c>
       <c r="B4">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>39</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
       <c r="B6">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
         <v>65</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>42</v>
       </c>
       <c r="B10">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>14</v>
+      </c>
+      <c r="E10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11">
         <v>65</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>43</v>
       </c>
       <c r="B12">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>45</v>
       </c>
       <c r="B15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>46</v>
       </c>
       <c r="B16">
         <v>62</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>19</v>
+      </c>
+      <c r="E16">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
       <c r="B17">
         <v>65</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C17">
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
       <c r="B21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4</v>
       </c>
       <c r="B23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5</v>
       </c>
       <c r="B24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6</v>
       </c>
       <c r="B25">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>9</v>
+      </c>
+      <c r="E25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>7</v>
       </c>
       <c r="B26">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
       <c r="B27">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+      <c r="C27">
+        <v>9</v>
+      </c>
+      <c r="D27">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>140</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>49</v>
       </c>
       <c r="B30">
         <v>12</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>50</v>
       </c>
       <c r="B31">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>8</v>
       </c>
       <c r="B32">
         <v>65</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C32">
+        <v>9</v>
+      </c>
+      <c r="D32">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>51</v>
       </c>
       <c r="B33">
         <v>49</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C33">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>18</v>
+      </c>
+      <c r="E33">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>140</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2</v>
       </c>
       <c r="B36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3</v>
       </c>
       <c r="B37">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>4</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>5</v>
       </c>
       <c r="B39">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>6</v>
       </c>
       <c r="B40">
         <v>28</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C40">
+        <v>6</v>
+      </c>
+      <c r="D40">
+        <v>8</v>
+      </c>
+      <c r="E40">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>7</v>
       </c>
       <c r="B41">
         <v>19</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>8</v>
+      </c>
+      <c r="E41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>8</v>
       </c>
       <c r="B42">
         <v>62</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C42">
+        <v>9</v>
+      </c>
+      <c r="D42">
+        <v>20</v>
+      </c>
+      <c r="E42">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s">
+        <v>140</v>
+      </c>
+      <c r="D44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2</v>
       </c>
       <c r="B45">
         <v>9</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>3</v>
       </c>
       <c r="B46">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>4</v>
       </c>
       <c r="B47">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>5</v>
       </c>
       <c r="B48">
         <v>12</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="E48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>6</v>
       </c>
       <c r="B49">
         <v>20</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="D49">
+        <v>8</v>
+      </c>
+      <c r="E49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>7</v>
       </c>
       <c r="B50">
         <v>5</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>8</v>
       </c>
       <c r="B51">
         <v>62</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C51">
+        <v>9</v>
+      </c>
+      <c r="D51">
+        <v>20</v>
+      </c>
+      <c r="E51">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" t="s">
+        <v>140</v>
+      </c>
+      <c r="D53" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2</v>
       </c>
       <c r="B54">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3</v>
       </c>
       <c r="B55">
         <v>5</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>4</v>
       </c>
       <c r="B56">
         <v>7</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>5</v>
       </c>
       <c r="B57">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <v>6</v>
+      </c>
+      <c r="E57">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>6</v>
       </c>
       <c r="B58">
         <v>21</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C58">
+        <v>4</v>
+      </c>
+      <c r="D58">
+        <v>8</v>
+      </c>
+      <c r="E58">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>7</v>
       </c>
       <c r="B59">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+      <c r="E59">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>8</v>
       </c>
       <c r="B60">
         <v>62</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63">
-        <v>2</v>
-      </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64">
-        <v>4</v>
-      </c>
-      <c r="B64">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65">
-        <v>5</v>
-      </c>
-      <c r="B65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66">
-        <v>6</v>
-      </c>
-      <c r="B66">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67">
-        <v>7</v>
-      </c>
-      <c r="B67">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>8</v>
-      </c>
-      <c r="B68">
-        <v>22</v>
+      <c r="C60">
+        <v>9</v>
+      </c>
+      <c r="D60">
+        <v>20</v>
+      </c>
+      <c r="E60">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -7238,30 +7788,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D225"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="H109" sqref="H109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>70</v>
       </c>
       <c r="B2">
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -7269,44 +7819,44 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>72</v>
       </c>
       <c r="B6">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -7314,20 +7864,20 @@
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>77</v>
-      </c>
       <c r="B13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -7335,7 +7885,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -7343,7 +7893,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -7351,28 +7901,28 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>79</v>
       </c>
       <c r="B19">
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B20">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -7380,15 +7930,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -7396,12 +7946,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -7409,100 +7959,100 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B27">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B28">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B29">
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>87</v>
       </c>
       <c r="B32">
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B33">
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B34">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B35">
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B36">
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B37">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B38">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B39">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -7510,140 +8060,140 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>96</v>
       </c>
       <c r="B43">
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B44">
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B45">
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B46">
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B47">
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B48">
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B49">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B50">
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B51">
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B52">
         <v>72</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B53">
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B54">
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B55">
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B56">
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B57">
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B58">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -7651,12 +8201,12 @@
         <v>234</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -7664,44 +8214,44 @@
         <v>118</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B65">
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B66">
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>115</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>116</v>
-      </c>
-      <c r="B67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>117</v>
       </c>
       <c r="B68">
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -7709,68 +8259,68 @@
         <v>118</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B72">
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B73">
         <v>52</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B74">
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>123</v>
       </c>
       <c r="B77">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B78">
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B79">
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B80">
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>8</v>
       </c>
@@ -7778,7 +8328,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>20</v>
       </c>
@@ -7786,180 +8336,180 @@
         <v>49</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B83">
         <v>21</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B84">
         <v>70</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B85">
         <v>60</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>131</v>
       </c>
       <c r="B88">
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B89">
         <v>61</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B90">
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B91">
         <v>27</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B92">
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B93">
         <v>63</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B94">
         <v>32</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B95">
         <v>21</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>102</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>103</v>
-      </c>
-      <c r="B96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>104</v>
       </c>
       <c r="B97">
         <v>50</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B98">
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>48</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B101">
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B102">
         <v>59</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>54</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>39</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B105">
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>8</v>
       </c>
@@ -7967,28 +8517,28 @@
         <v>236</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>133</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>134</v>
       </c>
-      <c r="B107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
+      <c r="B108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>135</v>
       </c>
-      <c r="B108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>8</v>
       </c>
@@ -7996,58 +8546,58 @@
         <v>118</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B112">
         <v>47</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B113">
         <v>45</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B114">
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>115</v>
+      </c>
+      <c r="B115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>116</v>
-      </c>
-      <c r="B115">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
-        <v>117</v>
       </c>
       <c r="B116">
         <v>21</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>137</v>
+      </c>
+      <c r="C118" t="s">
         <v>138</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>139</v>
       </c>
-      <c r="D118" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1000</v>
       </c>
@@ -8063,7 +8613,7 @@
         <v>10.467610062893081</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1060</v>
       </c>
@@ -8071,7 +8621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1085</v>
       </c>
@@ -8079,7 +8629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1156</v>
       </c>
@@ -8087,7 +8637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1212</v>
       </c>
@@ -8095,7 +8645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1299</v>
       </c>
@@ -8103,7 +8653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1374</v>
       </c>
@@ -8111,7 +8661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1997</v>
       </c>
@@ -8119,7 +8669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>260</v>
       </c>
@@ -8127,7 +8677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>290</v>
       </c>
@@ -8135,7 +8685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>310</v>
       </c>
@@ -8143,7 +8693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>327</v>
       </c>
@@ -8151,7 +8701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>361</v>
       </c>
@@ -8159,7 +8709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>368</v>
       </c>
@@ -8167,7 +8717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>370</v>
       </c>
@@ -8175,7 +8725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>371</v>
       </c>
@@ -8183,7 +8733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>372</v>
       </c>
@@ -8191,7 +8741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>382</v>
       </c>
@@ -8199,7 +8749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>383</v>
       </c>
@@ -8207,7 +8757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>403</v>
       </c>
@@ -8215,7 +8765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>404</v>
       </c>
@@ -8223,7 +8773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>410</v>
       </c>
@@ -8231,7 +8781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>413</v>
       </c>
@@ -8239,7 +8789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>414</v>
       </c>
@@ -8247,7 +8797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>419</v>
       </c>
@@ -8255,7 +8805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>420</v>
       </c>
@@ -8263,7 +8813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>424</v>
       </c>
@@ -8271,7 +8821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>429</v>
       </c>
@@ -8279,7 +8829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>433</v>
       </c>
@@ -8287,7 +8837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>434</v>
       </c>
@@ -8295,7 +8845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>435</v>
       </c>
@@ -8303,7 +8853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>456</v>
       </c>
@@ -8311,7 +8861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>461</v>
       </c>
@@ -8319,7 +8869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>464</v>
       </c>
@@ -8327,7 +8877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>465</v>
       </c>
@@ -8335,7 +8885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>472</v>
       </c>
@@ -8343,7 +8893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>474</v>
       </c>
@@ -8351,7 +8901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>475</v>
       </c>
@@ -8359,7 +8909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>476</v>
       </c>
@@ -8367,7 +8917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>480</v>
       </c>
@@ -8375,7 +8925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>490</v>
       </c>
@@ -8383,7 +8933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>496</v>
       </c>
@@ -8391,7 +8941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>498</v>
       </c>
@@ -8399,7 +8949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>499</v>
       </c>
@@ -8407,7 +8957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>507</v>
       </c>
@@ -8415,7 +8965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>512</v>
       </c>
@@ -8423,7 +8973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>513</v>
       </c>
@@ -8431,7 +8981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>514</v>
       </c>
@@ -8439,7 +8989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>516</v>
       </c>
@@ -8447,7 +8997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>523</v>
       </c>
@@ -8455,7 +9005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>525</v>
       </c>
@@ -8463,7 +9013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>527</v>
       </c>
@@ -8471,7 +9021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>529</v>
       </c>
@@ -8479,7 +9029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>533</v>
       </c>
@@ -8487,7 +9037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>534</v>
       </c>
@@ -8495,7 +9045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>535</v>
       </c>
@@ -8503,7 +9053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>539</v>
       </c>
@@ -8511,7 +9061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>543</v>
       </c>
@@ -8519,7 +9069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>547</v>
       </c>
@@ -8527,7 +9077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>564</v>
       </c>
@@ -8535,7 +9085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>572</v>
       </c>
@@ -8543,7 +9093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>575</v>
       </c>
@@ -8551,7 +9101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>588</v>
       </c>
@@ -8559,7 +9109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>596</v>
       </c>
@@ -8567,7 +9117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>600</v>
       </c>
@@ -8575,7 +9125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>606</v>
       </c>
@@ -8583,7 +9133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>610</v>
       </c>
@@ -8591,7 +9141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>611</v>
       </c>
@@ -8599,7 +9149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>613</v>
       </c>
@@ -8607,7 +9157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>625</v>
       </c>
@@ -8615,7 +9165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>627</v>
       </c>
@@ -8623,7 +9173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>630</v>
       </c>
@@ -8631,7 +9181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>646</v>
       </c>
@@ -8639,7 +9189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>650</v>
       </c>
@@ -8647,7 +9197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>655</v>
       </c>
@@ -8655,7 +9205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>657</v>
       </c>
@@ -8663,7 +9213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>658</v>
       </c>
@@ -8671,7 +9221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>665</v>
       </c>
@@ -8679,7 +9229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>666</v>
       </c>
@@ -8687,7 +9237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>671</v>
       </c>
@@ -8695,7 +9245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>680</v>
       </c>
@@ -8703,7 +9253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>698</v>
       </c>
@@ -8711,7 +9261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>699</v>
       </c>
@@ -8719,7 +9269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>700</v>
       </c>
@@ -8727,7 +9277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>705</v>
       </c>
@@ -8735,7 +9285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>706</v>
       </c>
@@ -8743,7 +9293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>709</v>
       </c>
@@ -8751,7 +9301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>720</v>
       </c>
@@ -8759,7 +9309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>722</v>
       </c>
@@ -8767,7 +9317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>723</v>
       </c>
@@ -8775,7 +9325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>732</v>
       </c>
@@ -8783,7 +9333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>733</v>
       </c>
@@ -8791,7 +9341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>742</v>
       </c>
@@ -8799,7 +9349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>765</v>
       </c>
@@ -8807,7 +9357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>766</v>
       </c>
@@ -8815,7 +9365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>767</v>
       </c>
@@ -8823,7 +9373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>771</v>
       </c>
@@ -8831,7 +9381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>773</v>
       </c>
@@ -8839,7 +9389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>819</v>
       </c>
@@ -8847,7 +9397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>831</v>
       </c>
@@ -8855,7 +9405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>836</v>
       </c>
@@ -8863,7 +9413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>933</v>
       </c>
@@ -8871,7 +9421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>941</v>
       </c>
@@ -8879,7 +9429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>950</v>
       </c>
@@ -8887,7 +9437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>967</v>
       </c>
@@ -8895,7 +9445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>983</v>
       </c>
@@ -8903,7 +9453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>8</v>
       </c>

--- a/Erhobene Daten/Auswertung/Auswertungen.xlsx
+++ b/Erhobene Daten/Auswertung/Auswertungen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulk\Documents\Witality-Android\Erhobene Daten\Auswertung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66C2633-8A7D-4C66-B7A6-2B61DEEFF68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E9BE0C-8F52-4F5F-9680-A6775EABCBD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rot" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="147">
   <si>
     <t>Absolut</t>
   </si>
@@ -179,9 +179,6 @@
     <t>Rechtshändig</t>
   </si>
   <si>
-    <t>Ich fühle mich frisch und ausgeruht. 1: Trifft gar nicht -7: Trifft völlig</t>
-  </si>
-  <si>
     <t>Wie oft benutzen Sie Virtual Reality (VR)-Headsets?</t>
   </si>
   <si>
@@ -458,7 +455,28 @@
     <t>in Minuten</t>
   </si>
   <si>
-    <t>Sensorik</t>
+    <t>Frage</t>
+  </si>
+  <si>
+    <t>Ich fühle mich frisch und ausgeruht.</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>S = Sensoriklabor</t>
+  </si>
+  <si>
+    <t>W=Weinkeller</t>
+  </si>
+  <si>
+    <t>V=Weinkeller virtuell (physisch Sensoriklabor)</t>
   </si>
 </sst>
 </file>
@@ -947,7 +965,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -955,6 +973,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1313,10 +1335,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:X39"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="W16" sqref="W16"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AE9" sqref="AE9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1327,208 +1349,218 @@
     <col min="13" max="20" width="4.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
-        <v>1</v>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B3" s="5">
+        <v>322</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
-        <v>2</v>
+      <c r="E3" s="5">
+        <v>644</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="5" t="s">
-        <v>3</v>
+      <c r="H3" s="5">
+        <v>983</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
-      <c r="L3" s="5" t="s">
-        <v>1</v>
+      <c r="L3" s="5">
+        <v>322</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
-      <c r="O3" s="5" t="s">
-        <v>2</v>
+      <c r="O3" s="5">
+        <v>644</v>
       </c>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
-      <c r="R3" s="5" t="s">
-        <v>3</v>
+      <c r="R3" s="5">
+        <v>983</v>
       </c>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>322</v>
-      </c>
-      <c r="C4">
-        <v>644</v>
-      </c>
-      <c r="D4">
-        <v>983</v>
-      </c>
-      <c r="E4">
-        <v>322</v>
-      </c>
-      <c r="F4">
-        <v>644</v>
-      </c>
-      <c r="G4">
-        <v>983</v>
-      </c>
-      <c r="H4">
-        <v>322</v>
-      </c>
-      <c r="I4">
-        <v>644</v>
-      </c>
-      <c r="J4">
-        <v>983</v>
-      </c>
-      <c r="L4">
-        <v>322</v>
-      </c>
-      <c r="M4">
-        <v>644</v>
-      </c>
-      <c r="N4">
-        <v>983</v>
-      </c>
-      <c r="O4">
-        <v>322</v>
-      </c>
-      <c r="P4">
-        <v>644</v>
-      </c>
-      <c r="Q4">
-        <v>983</v>
-      </c>
-      <c r="R4">
-        <v>322</v>
-      </c>
-      <c r="S4">
-        <v>644</v>
-      </c>
-      <c r="T4">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" t="s">
+        <v>141</v>
+      </c>
+      <c r="H4" t="s">
+        <v>142</v>
+      </c>
+      <c r="I4" t="s">
+        <v>143</v>
+      </c>
+      <c r="J4" t="s">
+        <v>141</v>
+      </c>
+      <c r="L4" t="s">
+        <v>142</v>
+      </c>
+      <c r="M4" t="s">
+        <v>143</v>
+      </c>
+      <c r="N4" t="s">
+        <v>141</v>
+      </c>
+      <c r="O4" t="s">
+        <v>142</v>
+      </c>
+      <c r="P4" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>141</v>
+      </c>
+      <c r="R4" t="s">
+        <v>142</v>
+      </c>
+      <c r="S4" t="s">
+        <v>143</v>
+      </c>
+      <c r="T4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F5">
         <v>4</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="L5" s="4">
         <f>B5/B8</f>
-        <v>0.33333333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="M5" s="4">
         <f>C5/C8</f>
-        <v>0.375</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N5" s="4">
         <f>D5/D8</f>
-        <v>0.83333333333333337</v>
+        <v>0.5</v>
       </c>
       <c r="O5" s="4">
         <f>E5/E8</f>
-        <v>0.5</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="P5" s="4">
         <f>F5/F8</f>
-        <v>0.5</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="Q5" s="4">
         <f t="shared" ref="Q5:T5" si="0">G5/G8</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.5</v>
       </c>
       <c r="R5" s="4">
         <f>H5/H8</f>
-        <v>0.81818181818181823</v>
+        <v>0</v>
       </c>
       <c r="S5" s="4">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="T5" s="4">
         <f t="shared" si="0"/>
-        <v>0.76</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>12</v>
+      </c>
+      <c r="I6">
+        <v>11</v>
+      </c>
+      <c r="J6">
         <v>7</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
       </c>
       <c r="L6" s="4">
         <f t="shared" ref="L6:T6" si="1">B6/B8</f>
@@ -1536,135 +1568,135 @@
       </c>
       <c r="M6" s="4">
         <f t="shared" si="1"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="N6" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="O6" s="4">
         <f t="shared" si="1"/>
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="P6" s="4">
         <f t="shared" si="1"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="4">
         <f t="shared" si="1"/>
-        <v>0.58333333333333337</v>
+        <v>0.125</v>
       </c>
       <c r="R6" s="4">
         <f t="shared" si="1"/>
-        <v>9.0909090909090912E-2</v>
+        <v>0.8</v>
       </c>
       <c r="S6" s="4">
         <f t="shared" si="1"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="T6" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>14</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
         <v>4</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>7</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7">
+      <c r="J7">
         <v>4</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>21</v>
-      </c>
-      <c r="J7">
-        <v>6</v>
       </c>
       <c r="L7" s="4">
         <f t="shared" ref="L7:T7" si="2">B7/B8</f>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="M7" s="4">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="N7" s="4">
         <f t="shared" si="2"/>
-        <v>0.16666666666666666</v>
+        <v>0.35</v>
       </c>
       <c r="O7" s="4">
         <f t="shared" si="2"/>
-        <v>0.35</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="P7" s="4">
         <f t="shared" si="2"/>
-        <v>0.375</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="Q7" s="4">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="R7" s="4">
         <f t="shared" si="2"/>
-        <v>9.0909090909090912E-2</v>
+        <v>0.2</v>
       </c>
       <c r="S7" s="4">
         <f t="shared" si="2"/>
-        <v>0.7</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="T7" s="4">
         <f t="shared" si="2"/>
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>18</v>
+      </c>
+      <c r="F8">
+        <v>18</v>
+      </c>
+      <c r="G8">
         <v>8</v>
       </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
-      <c r="E8">
-        <v>20</v>
-      </c>
-      <c r="F8">
-        <v>8</v>
-      </c>
-      <c r="G8">
+      <c r="H8">
+        <v>15</v>
+      </c>
+      <c r="I8">
+        <v>15</v>
+      </c>
+      <c r="J8">
         <v>12</v>
-      </c>
-      <c r="H8">
-        <v>11</v>
-      </c>
-      <c r="I8">
-        <v>30</v>
-      </c>
-      <c r="J8">
-        <v>25</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
@@ -1676,7 +1708,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -1687,7 +1719,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1701,211 +1733,211 @@
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
         <v>4</v>
       </c>
-      <c r="H11">
-        <v>2</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>8</v>
-      </c>
       <c r="L11" s="4">
-        <f>B11/B25</f>
-        <v>0</v>
+        <f>B11/B24</f>
+        <v>0.16666666666666666</v>
       </c>
       <c r="M11" s="4">
-        <f t="shared" ref="M11:T11" si="3">C11/C25</f>
-        <v>0.125</v>
+        <f>C11/C24</f>
+        <v>0.14285714285714285</v>
       </c>
       <c r="N11" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>D11/D24</f>
+        <v>0.1</v>
       </c>
       <c r="O11" s="4">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f>E11/E24</f>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="P11" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>F11/F24</f>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="Q11" s="4">
-        <f t="shared" si="3"/>
+        <f>G11/G24</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="4">
+        <f>H11/H24</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="R11" s="4">
-        <f t="shared" si="3"/>
-        <v>0.18181818181818182</v>
-      </c>
       <c r="S11" s="4">
-        <f t="shared" si="3"/>
-        <v>3.3333333333333333E-2</v>
+        <f>I11/I24</f>
+        <v>0.2</v>
       </c>
       <c r="T11" s="4">
-        <f t="shared" si="3"/>
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+        <f>J11/J24</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
       <c r="F12">
+        <v>12</v>
+      </c>
+      <c r="G12">
         <v>6</v>
-      </c>
-      <c r="G12">
-        <v>5</v>
       </c>
       <c r="H12">
         <v>6</v>
       </c>
       <c r="I12">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="J12">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L12" s="4">
-        <f>B12/B25</f>
-        <v>0</v>
+        <f>B12/B24</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M12" s="4">
-        <f t="shared" ref="M12:T12" si="4">C12/C25</f>
-        <v>0.375</v>
+        <f>C12/C24</f>
+        <v>0.5714285714285714</v>
       </c>
       <c r="N12" s="4">
-        <f t="shared" si="4"/>
-        <v>0.16666666666666666</v>
+        <f>D12/D24</f>
+        <v>0.5</v>
       </c>
       <c r="O12" s="4">
-        <f t="shared" si="4"/>
-        <v>0.5</v>
+        <f>E12/E24</f>
+        <v>0.55555555555555558</v>
       </c>
       <c r="P12" s="4">
-        <f t="shared" si="4"/>
+        <f>F12/F24</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q12" s="4">
+        <f>G12/G24</f>
         <v>0.75</v>
       </c>
-      <c r="Q12" s="4">
-        <f t="shared" si="4"/>
+      <c r="R12" s="4">
+        <f>H12/H24</f>
+        <v>0.4</v>
+      </c>
+      <c r="S12" s="4">
+        <f>I12/I24</f>
+        <v>0.2</v>
+      </c>
+      <c r="T12" s="4">
+        <f>J12/J24</f>
         <v>0.41666666666666669</v>
       </c>
-      <c r="R12" s="4">
-        <f t="shared" si="4"/>
-        <v>0.54545454545454541</v>
-      </c>
-      <c r="S12" s="4">
-        <f t="shared" si="4"/>
-        <v>0.6333333333333333</v>
-      </c>
-      <c r="T12" s="4">
-        <f t="shared" si="4"/>
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E13">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L13" s="4">
-        <f>B13/B25</f>
+        <f>B13/B24</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="M13" s="4">
-        <f t="shared" ref="M13:T13" si="5">C13/C25</f>
-        <v>0</v>
+        <f>C13/C24</f>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N13" s="4">
-        <f t="shared" si="5"/>
+        <f>D13/D24</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="O13" s="4">
+        <f>E13/E24</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="4">
+        <f>F13/F24</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="O13" s="4">
-        <f t="shared" si="5"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="P13" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="Q13" s="4">
-        <f t="shared" si="5"/>
+        <f>G13/G24</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="4">
+        <f>H13/H24</f>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="S13" s="4">
+        <f>I13/I24</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="T13" s="4">
+        <f>J13/J24</f>
         <v>0.25</v>
       </c>
-      <c r="R13" s="4">
-        <f t="shared" si="5"/>
-        <v>0.63636363636363635</v>
-      </c>
-      <c r="S13" s="4">
-        <f t="shared" si="5"/>
-        <v>0.1</v>
-      </c>
-      <c r="T13" s="4">
-        <f t="shared" si="5"/>
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1916,197 +1948,197 @@
         <v>4</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E14">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
         <v>6</v>
       </c>
-      <c r="H14">
-        <v>5</v>
-      </c>
-      <c r="I14">
-        <v>16</v>
-      </c>
-      <c r="J14">
-        <v>4</v>
-      </c>
       <c r="L14" s="4">
-        <f>B14/B25</f>
-        <v>1</v>
+        <f>B14/B24</f>
+        <v>0.5</v>
       </c>
       <c r="M14" s="4">
-        <f t="shared" ref="M14:T14" si="6">C14/C25</f>
+        <f>C14/C24</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="N14" s="4">
+        <f>D14/D24</f>
+        <v>0.65</v>
+      </c>
+      <c r="O14" s="4">
+        <f>E14/E24</f>
         <v>0.5</v>
       </c>
-      <c r="N14" s="4">
-        <f t="shared" si="6"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="O14" s="4">
-        <f t="shared" si="6"/>
-        <v>0.65</v>
-      </c>
       <c r="P14" s="4">
-        <f t="shared" si="6"/>
+        <f>F14/F24</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="Q14" s="4">
+        <f>G14/G24</f>
         <v>0.25</v>
       </c>
-      <c r="Q14" s="4">
-        <f t="shared" si="6"/>
+      <c r="R14" s="4">
+        <f>H14/H24</f>
+        <v>0.2</v>
+      </c>
+      <c r="S14" s="4">
+        <f>I14/I24</f>
+        <v>0.2</v>
+      </c>
+      <c r="T14" s="4">
+        <f>J14/J24</f>
         <v>0.5</v>
       </c>
-      <c r="R14" s="4">
-        <f t="shared" si="6"/>
-        <v>0.45454545454545453</v>
-      </c>
-      <c r="S14" s="4">
-        <f t="shared" si="6"/>
-        <v>0.53333333333333333</v>
-      </c>
-      <c r="T14" s="4">
-        <f t="shared" si="6"/>
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F15">
+        <v>9</v>
+      </c>
+      <c r="G15">
         <v>4</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>7</v>
       </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
       <c r="I15">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J15">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L15" s="4">
-        <f>B15/B25</f>
+        <f>B15/B24</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="M15" s="4">
-        <f t="shared" ref="M15:T15" si="7">C15/C25</f>
-        <v>0.625</v>
+        <f>C15/C24</f>
+        <v>0</v>
       </c>
       <c r="N15" s="4">
-        <f t="shared" si="7"/>
-        <v>0.16666666666666666</v>
+        <f>D15/D24</f>
+        <v>0.05</v>
       </c>
       <c r="O15" s="4">
-        <f t="shared" si="7"/>
-        <v>0.05</v>
+        <f>E15/E24</f>
+        <v>0.55555555555555558</v>
       </c>
       <c r="P15" s="4">
-        <f t="shared" si="7"/>
+        <f>F15/F24</f>
         <v>0.5</v>
       </c>
       <c r="Q15" s="4">
-        <f t="shared" si="7"/>
+        <f>G15/G24</f>
+        <v>0.5</v>
+      </c>
+      <c r="R15" s="4">
+        <f>H15/H24</f>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="S15" s="4">
+        <f>I15/I24</f>
+        <v>0.4</v>
+      </c>
+      <c r="T15" s="4">
+        <f>J15/J24</f>
         <v>0.58333333333333337</v>
       </c>
-      <c r="R15" s="4">
-        <f t="shared" si="7"/>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="S15" s="4">
-        <f t="shared" si="7"/>
-        <v>0.5</v>
-      </c>
-      <c r="T15" s="4">
-        <f t="shared" si="7"/>
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E16">
         <v>13</v>
       </c>
       <c r="F16">
+        <v>14</v>
+      </c>
+      <c r="G16">
         <v>4</v>
       </c>
-      <c r="G16">
+      <c r="H16">
+        <v>7</v>
+      </c>
+      <c r="I16">
+        <v>6</v>
+      </c>
+      <c r="J16">
         <v>5</v>
       </c>
-      <c r="H16">
-        <v>6</v>
-      </c>
-      <c r="I16">
-        <v>22</v>
-      </c>
-      <c r="J16">
-        <v>8</v>
-      </c>
       <c r="L16" s="4">
-        <f>B16/B25</f>
-        <v>0</v>
+        <f>B16/B24</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M16" s="4">
-        <f t="shared" ref="M16:T16" si="8">C16/C25</f>
-        <v>0.625</v>
+        <f>C16/C24</f>
+        <v>0.5714285714285714</v>
       </c>
       <c r="N16" s="4">
-        <f t="shared" si="8"/>
-        <v>0.83333333333333337</v>
+        <f>D16/D24</f>
+        <v>0.65</v>
       </c>
       <c r="O16" s="4">
-        <f t="shared" si="8"/>
-        <v>0.65</v>
+        <f>E16/E24</f>
+        <v>0.72222222222222221</v>
       </c>
       <c r="P16" s="4">
-        <f t="shared" si="8"/>
+        <f>F16/F24</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="Q16" s="4">
+        <f>G16/G24</f>
         <v>0.5</v>
       </c>
-      <c r="Q16" s="4">
-        <f t="shared" si="8"/>
+      <c r="R16" s="4">
+        <f>H16/H24</f>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="S16" s="4">
+        <f>I16/I24</f>
+        <v>0.4</v>
+      </c>
+      <c r="T16" s="4">
+        <f>J16/J24</f>
         <v>0.41666666666666669</v>
-      </c>
-      <c r="R16" s="4">
-        <f t="shared" si="8"/>
-        <v>0.54545454545454541</v>
-      </c>
-      <c r="S16" s="4">
-        <f t="shared" si="8"/>
-        <v>0.73333333333333328</v>
-      </c>
-      <c r="T16" s="4">
-        <f t="shared" si="8"/>
-        <v>0.32</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -2117,64 +2149,64 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I17">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L17" s="4">
-        <f>B17/B25</f>
+        <f>B17/B24</f>
         <v>0</v>
       </c>
       <c r="M17" s="4">
-        <f t="shared" ref="M17:T17" si="9">C17/C25</f>
+        <f>C17/C24</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <f>D17/D24</f>
+        <v>0.05</v>
+      </c>
+      <c r="O17" s="4">
+        <f>E17/E24</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="P17" s="4">
+        <f>F17/F24</f>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="Q17" s="4">
+        <f>G17/G24</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="4">
+        <f>H17/H24</f>
+        <v>0.2</v>
+      </c>
+      <c r="S17" s="4">
+        <f>I17/I24</f>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="T17" s="4">
+        <f>J17/J24</f>
         <v>0.25</v>
-      </c>
-      <c r="N17" s="4">
-        <f t="shared" si="9"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="O17" s="4">
-        <f t="shared" si="9"/>
-        <v>0.05</v>
-      </c>
-      <c r="P17" s="4">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="4">
-        <f t="shared" si="9"/>
-        <v>0.25</v>
-      </c>
-      <c r="R17" s="4">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="S17" s="4">
-        <f t="shared" si="9"/>
-        <v>0.23333333333333334</v>
-      </c>
-      <c r="T17" s="4">
-        <f t="shared" si="9"/>
-        <v>0.16</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -2182,67 +2214,67 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E18">
         <v>3</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <v>6</v>
+      </c>
+      <c r="J18">
         <v>4</v>
       </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>5</v>
-      </c>
-      <c r="J18">
-        <v>8</v>
-      </c>
       <c r="L18" s="4">
-        <f>B18/B25</f>
-        <v>0</v>
+        <f>B18/B24</f>
+        <v>0.16666666666666666</v>
       </c>
       <c r="M18" s="4">
-        <f t="shared" ref="M18:T18" si="10">C18/C25</f>
-        <v>0.25</v>
+        <f>C18/C24</f>
+        <v>0</v>
       </c>
       <c r="N18" s="4">
-        <f t="shared" si="10"/>
+        <f>D18/D24</f>
+        <v>0.15</v>
+      </c>
+      <c r="O18" s="4">
+        <f>E18/E24</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="O18" s="4">
-        <f t="shared" si="10"/>
-        <v>0.15</v>
-      </c>
       <c r="P18" s="4">
-        <f t="shared" si="10"/>
+        <f>F18/F24</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="Q18" s="4">
+        <f>G18/G24</f>
         <v>0.375</v>
       </c>
-      <c r="Q18" s="4">
-        <f t="shared" si="10"/>
+      <c r="R18" s="4">
+        <f>H18/H24</f>
+        <v>0.2</v>
+      </c>
+      <c r="S18" s="4">
+        <f>I18/I24</f>
+        <v>0.4</v>
+      </c>
+      <c r="T18" s="4">
+        <f>J18/J24</f>
         <v>0.33333333333333331</v>
-      </c>
-      <c r="R18" s="4">
-        <f t="shared" si="10"/>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="S18" s="4">
-        <f t="shared" si="10"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="T18" s="4">
-        <f t="shared" si="10"/>
-        <v>0.32</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
@@ -2250,67 +2282,67 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E19">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G19">
         <v>2</v>
       </c>
       <c r="H19">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I19">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19" s="4">
-        <f>B19/B25</f>
-        <v>0</v>
+        <f>B19/B24</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M19" s="4">
-        <f t="shared" ref="M19:T19" si="11">C19/C25</f>
-        <v>0.125</v>
+        <f>C19/C24</f>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N19" s="4">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f>D19/D24</f>
+        <v>0.4</v>
       </c>
       <c r="O19" s="4">
-        <f t="shared" si="11"/>
-        <v>0.4</v>
+        <f>E19/E24</f>
+        <v>0.27777777777777779</v>
       </c>
       <c r="P19" s="4">
-        <f t="shared" si="11"/>
+        <f>F19/F24</f>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="Q19" s="4">
+        <f>G19/G24</f>
         <v>0.25</v>
       </c>
-      <c r="Q19" s="4">
-        <f t="shared" si="11"/>
+      <c r="R19" s="4">
+        <f>H19/H24</f>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="S19" s="4">
+        <f>I19/I24</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="T19" s="4">
+        <f>J19/J24</f>
         <v>0.16666666666666666</v>
-      </c>
-      <c r="R19" s="4">
-        <f t="shared" si="11"/>
-        <v>0.63636363636363635</v>
-      </c>
-      <c r="S19" s="4">
-        <f t="shared" si="11"/>
-        <v>0.3</v>
-      </c>
-      <c r="T19" s="4">
-        <f t="shared" si="11"/>
-        <v>0.12</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -2318,67 +2350,67 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
         <v>5</v>
       </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
       <c r="I20">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J20">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="L20" s="4">
-        <f>B20/B25</f>
-        <v>0</v>
+        <f>B20/B24</f>
+        <v>0.16666666666666666</v>
       </c>
       <c r="M20" s="4">
-        <f t="shared" ref="M20:T20" si="12">C20/C25</f>
-        <v>0.125</v>
+        <f>C20/C24</f>
+        <v>0</v>
       </c>
       <c r="N20" s="4">
-        <f t="shared" si="12"/>
+        <f>D20/D24</f>
+        <v>0.05</v>
+      </c>
+      <c r="O20" s="4">
+        <f>E20/E24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="P20" s="4">
+        <f>F20/F24</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="Q20" s="4">
+        <f>G20/G24</f>
+        <v>0.375</v>
+      </c>
+      <c r="R20" s="4">
+        <f>H20/H24</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="O20" s="4">
-        <f t="shared" si="12"/>
-        <v>0.05</v>
-      </c>
-      <c r="P20" s="4">
-        <f t="shared" si="12"/>
-        <v>0.375</v>
-      </c>
-      <c r="Q20" s="4">
-        <f t="shared" si="12"/>
+      <c r="S20" s="4">
+        <f>I20/I24</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="T20" s="4">
+        <f>J20/J24</f>
         <v>0.41666666666666669</v>
-      </c>
-      <c r="R20" s="4">
-        <f t="shared" si="12"/>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="S20" s="4">
-        <f t="shared" si="12"/>
-        <v>0.1</v>
-      </c>
-      <c r="T20" s="4">
-        <f t="shared" si="12"/>
-        <v>0.52</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
@@ -2389,64 +2421,64 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E21">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F21">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G21">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="J21">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L21" s="4">
-        <f>B21/B25</f>
-        <v>0.66666666666666663</v>
+        <f>B21/B24</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M21" s="4">
-        <f t="shared" ref="M21:T21" si="13">C21/C25</f>
-        <v>0.5</v>
+        <f>C21/C24</f>
+        <v>0.42857142857142855</v>
       </c>
       <c r="N21" s="4">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>D21/D24</f>
+        <v>0.4</v>
       </c>
       <c r="O21" s="4">
-        <f t="shared" si="13"/>
-        <v>0.4</v>
+        <f>E21/E24</f>
+        <v>0.55555555555555558</v>
       </c>
       <c r="P21" s="4">
-        <f t="shared" si="13"/>
-        <v>0.875</v>
+        <f>F21/F24</f>
+        <v>0.55555555555555558</v>
       </c>
       <c r="Q21" s="4">
-        <f t="shared" si="13"/>
-        <v>0.66666666666666663</v>
+        <f>G21/G24</f>
+        <v>0.25</v>
       </c>
       <c r="R21" s="4">
-        <f t="shared" si="13"/>
-        <v>0.27272727272727271</v>
+        <f>H21/H24</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="S21" s="4">
-        <f t="shared" si="13"/>
-        <v>0.6333333333333333</v>
+        <f>I21/I24</f>
+        <v>0.13333333333333333</v>
       </c>
       <c r="T21" s="4">
-        <f t="shared" si="13"/>
-        <v>0.64</v>
+        <f>J21/J24</f>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
@@ -2454,67 +2486,67 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
         <v>4</v>
       </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22">
-        <v>8</v>
-      </c>
-      <c r="F22">
-        <v>2</v>
-      </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I22">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L22" s="4">
-        <f>B22/B25</f>
+        <f>B22/B24</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="M22" s="4">
-        <f t="shared" ref="M22:T22" si="14">C22/C25</f>
-        <v>0.5</v>
+        <f>C22/C24</f>
+        <v>0.2857142857142857</v>
       </c>
       <c r="N22" s="4">
-        <f t="shared" si="14"/>
+        <f>D22/D24</f>
+        <v>0.25</v>
+      </c>
+      <c r="O22" s="4">
+        <f>E22/E24</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="P22" s="4">
+        <f>F22/F24</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="Q22" s="4">
+        <f>G22/G24</f>
+        <v>0.125</v>
+      </c>
+      <c r="R22" s="4">
+        <f>H22/H24</f>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="S22" s="4">
+        <f>I22/I24</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="O22" s="4">
-        <f t="shared" si="14"/>
-        <v>0.4</v>
-      </c>
-      <c r="P22" s="4">
-        <f t="shared" si="14"/>
-        <v>0.25</v>
-      </c>
-      <c r="Q22" s="4">
-        <f t="shared" si="14"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="R22" s="4">
-        <f t="shared" si="14"/>
-        <v>0.27272727272727271</v>
-      </c>
-      <c r="S22" s="4">
-        <f t="shared" si="14"/>
-        <v>0.53333333333333333</v>
-      </c>
       <c r="T22" s="4">
-        <f t="shared" si="14"/>
-        <v>0.12</v>
+        <f>J22/J24</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
@@ -2522,168 +2554,111 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E23">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G23">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H23">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I23">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J23">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L23" s="4">
-        <f>B23/B25</f>
-        <v>0</v>
+        <f>B23/B24</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M23" s="4">
-        <f t="shared" ref="M23:T23" si="15">C23/C25</f>
-        <v>0.25</v>
+        <f>C23/C24</f>
+        <v>0.14285714285714285</v>
       </c>
       <c r="N23" s="4">
-        <f t="shared" si="15"/>
-        <v>0.33333333333333331</v>
+        <f>D23/D24</f>
+        <v>0.4</v>
       </c>
       <c r="O23" s="4">
-        <f t="shared" si="15"/>
-        <v>0.25</v>
+        <f>E23/E24</f>
+        <v>0.5</v>
       </c>
       <c r="P23" s="4">
-        <f t="shared" si="15"/>
-        <v>0.125</v>
+        <f>F23/F24</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="Q23" s="4">
-        <f t="shared" si="15"/>
-        <v>0.33333333333333331</v>
+        <f>G23/G24</f>
+        <v>0.875</v>
       </c>
       <c r="R23" s="4">
-        <f t="shared" si="15"/>
-        <v>0.36363636363636365</v>
+        <f>H23/H24</f>
+        <v>0.53333333333333333</v>
       </c>
       <c r="S23" s="4">
-        <f t="shared" si="15"/>
-        <v>0.13333333333333333</v>
+        <f>I23/I24</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="T23" s="4">
-        <f t="shared" si="15"/>
-        <v>0.44</v>
+        <f>J23/J24</f>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="L24" s="4">
-        <f>B24/B25</f>
-        <v>0</v>
-      </c>
-      <c r="M24" s="4">
-        <f t="shared" ref="M24:T24" si="16">C24/C25</f>
-        <v>0</v>
-      </c>
-      <c r="N24" s="4">
-        <f t="shared" si="16"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="O24" s="4">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="4">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="4">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="R24" s="4">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="S24" s="4">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T24" s="4">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25">
-        <v>3</v>
-      </c>
-      <c r="C25">
-        <v>8</v>
-      </c>
-      <c r="D25">
-        <v>6</v>
-      </c>
-      <c r="E25">
-        <v>20</v>
-      </c>
-      <c r="F25">
-        <v>8</v>
-      </c>
-      <c r="G25">
-        <v>12</v>
-      </c>
-      <c r="H25">
-        <v>11</v>
-      </c>
-      <c r="I25">
-        <v>30</v>
-      </c>
-      <c r="J25">
-        <v>25</v>
-      </c>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
@@ -2695,6 +2670,9 @@
       <c r="T25" s="4"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
@@ -2707,843 +2685,737 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>7</v>
+      </c>
+      <c r="E27">
+        <v>11</v>
+      </c>
+      <c r="F27">
+        <v>12</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <v>6</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+      <c r="J27">
+        <v>6</v>
+      </c>
+      <c r="L27" s="4">
+        <f>B27/B37</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M27" s="4">
+        <f>C27/C37</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="N27" s="4">
+        <f>D27/D37</f>
+        <v>0.35</v>
+      </c>
+      <c r="O27" s="4">
+        <f>E27/E37</f>
+        <v>0.61111111111111116</v>
+      </c>
+      <c r="P27" s="4">
+        <f>F27/F37</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q27" s="4">
+        <f>G27/G37</f>
+        <v>0.375</v>
+      </c>
+      <c r="R27" s="4">
+        <f>H27/H37</f>
+        <v>0.4</v>
+      </c>
+      <c r="S27" s="4">
+        <f>I27/I37</f>
+        <v>0.2</v>
+      </c>
+      <c r="T27" s="4">
+        <f>J27/J37</f>
+        <v>0.5</v>
+      </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28">
         <v>7</v>
       </c>
       <c r="F28">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G28">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I28">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="J28">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L28" s="4">
-        <f>B28/B39</f>
+        <f>B28/B37</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="M28" s="4">
+        <f>C28/C37</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="N28" s="4">
+        <f>D28/D37</f>
+        <v>0.1</v>
+      </c>
+      <c r="O28" s="4">
+        <f>E28/E37</f>
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="P28" s="4">
+        <f>F28/F37</f>
+        <v>0.5</v>
+      </c>
+      <c r="Q28" s="4">
+        <f>G28/G37</f>
+        <v>0.5</v>
+      </c>
+      <c r="R28" s="4">
+        <f>H28/H37</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="M28" s="4">
-        <f t="shared" ref="M28:T28" si="17">C28/C39</f>
-        <v>0.375</v>
-      </c>
-      <c r="N28" s="4">
-        <f t="shared" si="17"/>
+      <c r="S28" s="4">
+        <f>I28/I37</f>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="T28" s="4">
+        <f>J28/J37</f>
         <v>0.16666666666666666</v>
-      </c>
-      <c r="O28" s="4">
-        <f t="shared" si="17"/>
-        <v>0.35</v>
-      </c>
-      <c r="P28" s="4">
-        <f t="shared" si="17"/>
-        <v>0.375</v>
-      </c>
-      <c r="Q28" s="4">
-        <f t="shared" si="17"/>
-        <v>0.5</v>
-      </c>
-      <c r="R28" s="4">
-        <f t="shared" si="17"/>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="S28" s="4">
-        <f t="shared" si="17"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="T28" s="4">
-        <f t="shared" si="17"/>
-        <v>0.32</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29">
+        <v>5</v>
+      </c>
+      <c r="J29">
         <v>4</v>
       </c>
-      <c r="G29">
-        <v>2</v>
-      </c>
-      <c r="H29">
-        <v>2</v>
-      </c>
-      <c r="I29">
-        <v>14</v>
-      </c>
-      <c r="J29">
-        <v>11</v>
-      </c>
       <c r="L29" s="4">
-        <f>B29/B39</f>
+        <f>B29/B37</f>
         <v>0</v>
       </c>
       <c r="M29" s="4">
-        <f t="shared" ref="M29:T29" si="18">C29/C39</f>
-        <v>0.375</v>
+        <f>C29/C37</f>
+        <v>0</v>
       </c>
       <c r="N29" s="4">
-        <f t="shared" si="18"/>
+        <f>D29/D37</f>
+        <v>0.25</v>
+      </c>
+      <c r="O29" s="4">
+        <f>E29/E37</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="O29" s="4">
-        <f t="shared" si="18"/>
-        <v>0.1</v>
-      </c>
       <c r="P29" s="4">
-        <f t="shared" si="18"/>
-        <v>0.5</v>
+        <f>F29/F37</f>
+        <v>0.16666666666666666</v>
       </c>
       <c r="Q29" s="4">
-        <f t="shared" si="18"/>
-        <v>0.16666666666666666</v>
+        <f>G29/G37</f>
+        <v>0.125</v>
       </c>
       <c r="R29" s="4">
-        <f t="shared" si="18"/>
-        <v>0.18181818181818182</v>
+        <f>H29/H37</f>
+        <v>0.2</v>
       </c>
       <c r="S29" s="4">
-        <f t="shared" si="18"/>
-        <v>0.46666666666666667</v>
+        <f>I29/I37</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="T29" s="4">
-        <f t="shared" si="18"/>
-        <v>0.44</v>
+        <f>J29/J37</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E30">
+        <v>6</v>
+      </c>
+      <c r="F30">
         <v>5</v>
       </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
       <c r="G30">
+        <v>3</v>
+      </c>
+      <c r="H30">
+        <v>6</v>
+      </c>
+      <c r="I30">
+        <v>5</v>
+      </c>
+      <c r="J30">
         <v>4</v>
       </c>
-      <c r="H30">
-        <v>2</v>
-      </c>
-      <c r="I30">
-        <v>6</v>
-      </c>
-      <c r="J30">
-        <v>7</v>
-      </c>
       <c r="L30" s="4">
-        <f>B30/B39</f>
-        <v>0</v>
+        <f>B30/B37</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="M30" s="4">
-        <f t="shared" ref="M30:T30" si="19">C30/C39</f>
-        <v>0.125</v>
+        <f>C30/C37</f>
+        <v>0.42857142857142855</v>
       </c>
       <c r="N30" s="4">
-        <f t="shared" si="19"/>
-        <v>0.16666666666666666</v>
+        <f>D30/D37</f>
+        <v>0.5</v>
       </c>
       <c r="O30" s="4">
-        <f t="shared" si="19"/>
-        <v>0.25</v>
+        <f>E30/E37</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P30" s="4">
-        <f t="shared" si="19"/>
-        <v>0.125</v>
+        <f>F30/F37</f>
+        <v>0.27777777777777779</v>
       </c>
       <c r="Q30" s="4">
-        <f t="shared" si="19"/>
+        <f>G30/G37</f>
+        <v>0.375</v>
+      </c>
+      <c r="R30" s="4">
+        <f>H30/H37</f>
+        <v>0.4</v>
+      </c>
+      <c r="S30" s="4">
+        <f>I30/I37</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="R30" s="4">
-        <f t="shared" si="19"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="S30" s="4">
-        <f t="shared" si="19"/>
-        <v>0.2</v>
-      </c>
       <c r="T30" s="4">
-        <f t="shared" si="19"/>
-        <v>0.28000000000000003</v>
+        <f>J30/J37</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
         <v>4</v>
       </c>
-      <c r="H31">
+      <c r="I31">
+        <v>4</v>
+      </c>
+      <c r="J31">
         <v>6</v>
       </c>
-      <c r="I31">
-        <v>7</v>
-      </c>
-      <c r="J31">
-        <v>10</v>
-      </c>
       <c r="L31" s="4">
-        <f>B31/B39</f>
-        <v>1</v>
+        <f>B31/B37</f>
+        <v>0</v>
       </c>
       <c r="M31" s="4">
-        <f t="shared" ref="M31:T31" si="20">C31/C39</f>
-        <v>0.625</v>
+        <f>C31/C37</f>
+        <v>0</v>
       </c>
       <c r="N31" s="4">
-        <f t="shared" si="20"/>
-        <v>0.16666666666666666</v>
+        <f>D31/D37</f>
+        <v>0</v>
       </c>
       <c r="O31" s="4">
-        <f t="shared" si="20"/>
+        <f>E31/E37</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="P31" s="4">
+        <f>F31/F37</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="Q31" s="4">
+        <f>G31/G37</f>
+        <v>0.125</v>
+      </c>
+      <c r="R31" s="4">
+        <f>H31/H37</f>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="S31" s="4">
+        <f>I31/I37</f>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="T31" s="4">
+        <f>J31/J37</f>
         <v>0.5</v>
-      </c>
-      <c r="P31" s="4">
-        <f t="shared" si="20"/>
-        <v>0.375</v>
-      </c>
-      <c r="Q31" s="4">
-        <f t="shared" si="20"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="R31" s="4">
-        <f t="shared" si="20"/>
-        <v>0.54545454545454541</v>
-      </c>
-      <c r="S31" s="4">
-        <f t="shared" si="20"/>
-        <v>0.23333333333333334</v>
-      </c>
-      <c r="T31" s="4">
-        <f t="shared" si="20"/>
-        <v>0.4</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32">
         <v>5</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G32">
+        <v>5</v>
+      </c>
+      <c r="H32">
         <v>6</v>
       </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
       <c r="I32">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J32">
         <v>4</v>
       </c>
       <c r="L32" s="4">
-        <f>B32/B39</f>
-        <v>0</v>
+        <f>B32/B37</f>
+        <v>0.16666666666666666</v>
       </c>
       <c r="M32" s="4">
-        <f t="shared" ref="M32:T32" si="21">C32/C39</f>
-        <v>0</v>
+        <f>C32/C37</f>
+        <v>0.14285714285714285</v>
       </c>
       <c r="N32" s="4">
-        <f t="shared" si="21"/>
-        <v>0.83333333333333337</v>
+        <f>D32/D37</f>
+        <v>0.25</v>
       </c>
       <c r="O32" s="4">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f>E32/E37</f>
+        <v>0.77777777777777779</v>
       </c>
       <c r="P32" s="4">
-        <f t="shared" si="21"/>
-        <v>0.125</v>
+        <f>F32/F37</f>
+        <v>0.5</v>
       </c>
       <c r="Q32" s="4">
-        <f t="shared" si="21"/>
-        <v>0.5</v>
+        <f>G32/G37</f>
+        <v>0.625</v>
       </c>
       <c r="R32" s="4">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f>H32/H37</f>
+        <v>0.4</v>
       </c>
       <c r="S32" s="4">
-        <f t="shared" si="21"/>
-        <v>0.2</v>
+        <f>I32/I37</f>
+        <v>0.46666666666666667</v>
       </c>
       <c r="T32" s="4">
-        <f t="shared" si="21"/>
-        <v>0.16</v>
+        <f>J32/J37</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C33">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E33">
         <v>5</v>
       </c>
       <c r="F33">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J33">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L33" s="4">
-        <f>B33/B39</f>
+        <f>B33/B37</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="M33" s="4">
+        <f>C33/C37</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="N33" s="4">
+        <f>D33/D37</f>
+        <v>0.35</v>
+      </c>
+      <c r="O33" s="4">
+        <f>E33/E37</f>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="P33" s="4">
+        <f>F33/F37</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="Q33" s="4">
+        <f>G33/G37</f>
+        <v>0.125</v>
+      </c>
+      <c r="R33" s="4">
+        <f>H33/H37</f>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="S33" s="4">
+        <f>I33/I37</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="M33" s="4">
-        <f t="shared" ref="M33:T33" si="22">C33/C39</f>
-        <v>0.75</v>
-      </c>
-      <c r="N33" s="4">
-        <f t="shared" si="22"/>
-        <v>0.5</v>
-      </c>
-      <c r="O33" s="4">
-        <f t="shared" si="22"/>
-        <v>0.25</v>
-      </c>
-      <c r="P33" s="4">
-        <f t="shared" si="22"/>
-        <v>0.625</v>
-      </c>
-      <c r="Q33" s="4">
-        <f t="shared" si="22"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="R33" s="4">
-        <f t="shared" si="22"/>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="S33" s="4">
-        <f t="shared" si="22"/>
-        <v>0.6333333333333333</v>
-      </c>
       <c r="T33" s="4">
-        <f t="shared" si="22"/>
-        <v>0.4</v>
+        <f>J33/J37</f>
+        <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E34">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G34">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H34">
         <v>5</v>
       </c>
       <c r="I34">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J34">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="L34" s="4">
-        <f>B34/B39</f>
-        <v>1</v>
+        <f>B34/B37</f>
+        <v>0.16666666666666666</v>
       </c>
       <c r="M34" s="4">
-        <f t="shared" ref="M34:T34" si="23">C34/C39</f>
+        <f>C34/C37</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="N34" s="4">
+        <f>D34/D37</f>
+        <v>0.2</v>
+      </c>
+      <c r="O34" s="4">
+        <f>E34/E37</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="P34" s="4">
+        <f>F34/F37</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q34" s="4">
+        <f>G34/G37</f>
         <v>0.25</v>
       </c>
-      <c r="N34" s="4">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="O34" s="4">
-        <f t="shared" si="23"/>
-        <v>0.35</v>
-      </c>
-      <c r="P34" s="4">
-        <f t="shared" si="23"/>
-        <v>0.125</v>
-      </c>
-      <c r="Q34" s="4">
-        <f t="shared" si="23"/>
-        <v>0.58333333333333337</v>
-      </c>
       <c r="R34" s="4">
-        <f t="shared" si="23"/>
-        <v>0.45454545454545453</v>
+        <f>H34/H37</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="S34" s="4">
-        <f t="shared" si="23"/>
+        <f>I34/I37</f>
         <v>0.46666666666666667</v>
       </c>
       <c r="T34" s="4">
-        <f t="shared" si="23"/>
-        <v>0.48</v>
+        <f>J34/J37</f>
+        <v>0.25</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I35">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L35" s="4">
-        <f>B35/B39</f>
-        <v>0</v>
+        <f>B35/B37</f>
+        <v>0.16666666666666666</v>
       </c>
       <c r="M35" s="4">
-        <f t="shared" ref="M35:T35" si="24">C35/C39</f>
-        <v>0.375</v>
+        <f t="shared" ref="M35:T35" si="3">C35/C37</f>
+        <v>0.5714285714285714</v>
       </c>
       <c r="N35" s="4">
-        <f t="shared" si="24"/>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="3"/>
+        <v>0.6</v>
       </c>
       <c r="O35" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="4">
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="P35" s="4">
-        <f t="shared" si="24"/>
-        <v>0.25</v>
-      </c>
-      <c r="Q35" s="4">
-        <f t="shared" si="24"/>
-        <v>0.25</v>
-      </c>
-      <c r="R35" s="4">
-        <f t="shared" si="24"/>
-        <v>0.36363636363636365</v>
-      </c>
       <c r="S35" s="4">
-        <f t="shared" si="24"/>
-        <v>0.26666666666666666</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="T35" s="4">
-        <f t="shared" si="24"/>
-        <v>0.44</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L36" s="4">
-        <f>B36/B39</f>
-        <v>0.33333333333333331</v>
+        <f>B36/B37</f>
+        <v>0.5</v>
       </c>
       <c r="M36" s="4">
-        <f t="shared" ref="M36:T36" si="25">C36/C39</f>
-        <v>0.125</v>
+        <f t="shared" ref="M36:T36" si="4">C36/C37</f>
+        <v>0.42857142857142855</v>
       </c>
       <c r="N36" s="4">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0.4</v>
       </c>
       <c r="O36" s="4">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0.88888888888888884</v>
       </c>
       <c r="P36" s="4">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0.77777777777777779</v>
       </c>
       <c r="Q36" s="4">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0.875</v>
       </c>
       <c r="R36" s="4">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0.53333333333333333</v>
       </c>
       <c r="S36" s="4">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0.4</v>
       </c>
       <c r="T36" s="4">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E37">
+        <v>18</v>
+      </c>
+      <c r="F37">
+        <v>18</v>
+      </c>
+      <c r="G37">
+        <v>8</v>
+      </c>
+      <c r="H37">
+        <v>15</v>
+      </c>
+      <c r="I37">
+        <v>15</v>
+      </c>
+      <c r="J37">
         <v>12</v>
       </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>5</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>2</v>
-      </c>
-      <c r="L37" s="4">
-        <f>B37/B39</f>
-        <v>0</v>
-      </c>
-      <c r="M37" s="4">
-        <f t="shared" ref="M37:T37" si="26">C37/C39</f>
-        <v>0</v>
-      </c>
-      <c r="N37" s="4">
-        <f t="shared" si="26"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="O37" s="4">
-        <f t="shared" si="26"/>
-        <v>0.6</v>
-      </c>
-      <c r="P37" s="4">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="Q37" s="4">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="R37" s="4">
-        <f t="shared" si="26"/>
-        <v>0.45454545454545453</v>
-      </c>
-      <c r="S37" s="4">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="T37" s="4">
-        <f t="shared" si="26"/>
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38">
-        <v>2</v>
-      </c>
-      <c r="C38">
-        <v>5</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>8</v>
-      </c>
-      <c r="F38">
-        <v>7</v>
-      </c>
-      <c r="G38">
-        <v>8</v>
-      </c>
-      <c r="H38">
-        <v>4</v>
-      </c>
-      <c r="I38">
-        <v>25</v>
-      </c>
-      <c r="J38">
-        <v>13</v>
-      </c>
-      <c r="L38" s="4">
-        <f>B38/B39</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="M38" s="4">
-        <f t="shared" ref="M38:T38" si="27">C38/C39</f>
-        <v>0.625</v>
-      </c>
-      <c r="N38" s="4">
-        <f t="shared" si="27"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="O38" s="4">
-        <f t="shared" si="27"/>
-        <v>0.4</v>
-      </c>
-      <c r="P38" s="4">
-        <f t="shared" si="27"/>
-        <v>0.875</v>
-      </c>
-      <c r="Q38" s="4">
-        <f t="shared" si="27"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="R38" s="4">
-        <f t="shared" si="27"/>
-        <v>0.36363636363636365</v>
-      </c>
-      <c r="S38" s="4">
-        <f t="shared" si="27"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="T38" s="4">
-        <f t="shared" si="27"/>
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39">
-        <v>3</v>
-      </c>
-      <c r="C39">
-        <v>8</v>
-      </c>
-      <c r="D39">
-        <v>6</v>
-      </c>
-      <c r="E39">
-        <v>20</v>
-      </c>
-      <c r="F39">
-        <v>8</v>
-      </c>
-      <c r="G39">
-        <v>12</v>
-      </c>
-      <c r="H39">
-        <v>11</v>
-      </c>
-      <c r="I39">
-        <v>30</v>
-      </c>
-      <c r="J39">
-        <v>25</v>
-      </c>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="L3:N3"/>
     <mergeCell ref="O3:Q3"/>
     <mergeCell ref="R3:T3"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="H3:J3"/>
-    <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="L5:L7">
     <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L28:L38">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L11:T24">
-    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3566,18 +3438,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M28:M38">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="N5:N7">
     <cfRule type="colorScale" priority="32">
       <colorScale>
@@ -3590,32 +3450,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N28:N38">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="O5:O7">
     <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O28:O38">
-    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3650,32 +3486,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P28:P38">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="Q5:Q7">
     <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q28:Q38">
-    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3698,32 +3510,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R28:R38">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="S5:S7">
     <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S28:S38">
-    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3746,8 +3534,116 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T28:T38">
-    <cfRule type="colorScale" priority="7">
+  <conditionalFormatting sqref="L27:L36">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M27:M36">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N27:N36">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O27:O36">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P27:P36">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q27:Q36">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R27:R36">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S27:S36">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T27:T36">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L11:T23">
+    <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3764,190 +3660,228 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A3:Z37"/>
+  <dimension ref="A1:AQ37"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AC12" sqref="AC12"/>
+      <selection activeCell="AE19" sqref="AE19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="13" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="26" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="26" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
-        <v>1</v>
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="6"/>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B3" s="5">
+        <v>131</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="E3" s="5">
+        <v>364</v>
+      </c>
+      <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="H3" s="5">
+        <v>597</v>
+      </c>
       <c r="I3" s="5"/>
-      <c r="J3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5">
+        <v>720</v>
+      </c>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
-      <c r="O3" s="5" t="s">
-        <v>1</v>
+      <c r="O3" s="5">
+        <v>131</v>
       </c>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="R3" s="5">
+        <v>364</v>
+      </c>
+      <c r="S3" s="5"/>
       <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
+      <c r="U3" s="5">
+        <v>597</v>
+      </c>
       <c r="V3" s="5"/>
-      <c r="W3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="X3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5">
+        <v>720</v>
+      </c>
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>720</v>
-      </c>
-      <c r="C4">
-        <v>364</v>
-      </c>
-      <c r="D4">
-        <v>131</v>
-      </c>
-      <c r="E4">
-        <v>597</v>
-      </c>
-      <c r="F4">
-        <v>720</v>
-      </c>
-      <c r="G4">
-        <v>364</v>
-      </c>
-      <c r="H4">
-        <v>131</v>
-      </c>
-      <c r="I4">
-        <v>597</v>
-      </c>
-      <c r="J4">
-        <v>720</v>
-      </c>
-      <c r="K4">
-        <v>364</v>
-      </c>
-      <c r="L4">
-        <v>131</v>
-      </c>
-      <c r="M4">
-        <v>597</v>
-      </c>
-      <c r="O4">
-        <v>720</v>
-      </c>
-      <c r="P4">
-        <v>364</v>
-      </c>
-      <c r="Q4">
-        <v>131</v>
-      </c>
-      <c r="R4">
-        <v>597</v>
-      </c>
-      <c r="S4">
-        <v>720</v>
-      </c>
-      <c r="T4">
-        <v>364</v>
-      </c>
-      <c r="U4">
-        <v>131</v>
-      </c>
-      <c r="V4">
-        <v>597</v>
-      </c>
-      <c r="W4">
-        <v>720</v>
-      </c>
-      <c r="X4">
-        <v>364</v>
-      </c>
-      <c r="Y4">
-        <v>131</v>
-      </c>
-      <c r="Z4">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y4" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z4" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="6"/>
+      <c r="AI4" s="6"/>
+      <c r="AJ4" s="6"/>
+      <c r="AK4" s="6"/>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="6"/>
+      <c r="AN4" s="6"/>
+      <c r="AO4" s="6"/>
+      <c r="AP4" s="6"/>
+      <c r="AQ4" s="6"/>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
         <v>4</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
         <v>4</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>6</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
       </c>
       <c r="O5" s="1">
         <f>B5/B8</f>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" ref="P5:Q5" si="0">C5/C8</f>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="Q5" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" ref="R5:Z5" si="1">E5/E8</f>
@@ -3955,7 +3889,7 @@
       </c>
       <c r="S5" s="1">
         <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="T5" s="1">
         <f t="shared" si="1"/>
@@ -3963,88 +3897,88 @@
       </c>
       <c r="U5" s="1">
         <f t="shared" si="1"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0</v>
       </c>
       <c r="V5" s="1">
         <f t="shared" si="1"/>
-        <v>0.21052631578947367</v>
+        <v>0.125</v>
       </c>
       <c r="W5" s="1">
         <f t="shared" si="1"/>
-        <v>7.1428571428571425E-2</v>
+        <v>0.21052631578947367</v>
       </c>
       <c r="X5" s="1">
         <f t="shared" si="1"/>
-        <v>0.10714285714285714</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="1">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="Z5" s="1">
         <f t="shared" si="1"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G6">
         <v>10</v>
       </c>
       <c r="H6">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
         <v>12</v>
       </c>
-      <c r="J6">
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
         <v>6</v>
-      </c>
-      <c r="K6">
-        <v>13</v>
-      </c>
-      <c r="L6">
-        <v>20</v>
-      </c>
-      <c r="M6">
-        <v>7</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" ref="O6:Q6" si="2">B6/B8</f>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="P6" s="1">
         <f>C6/C8</f>
-        <v>0.25</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="Q6" s="1">
         <f t="shared" si="2"/>
-        <v>0.75</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" ref="R6:Z6" si="3">E6/E8</f>
-        <v>1</v>
+        <v>0.29411764705882354</v>
       </c>
       <c r="S6" s="1">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="T6" s="1">
         <f t="shared" si="3"/>
@@ -4052,88 +3986,88 @@
       </c>
       <c r="U6" s="1">
         <f t="shared" si="3"/>
-        <v>0.8666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="V6" s="1">
         <f t="shared" si="3"/>
-        <v>0.63157894736842102</v>
+        <v>0.625</v>
       </c>
       <c r="W6" s="1">
         <f t="shared" si="3"/>
-        <v>0.21428571428571427</v>
+        <v>0.63157894736842102</v>
       </c>
       <c r="X6" s="1">
         <f t="shared" si="3"/>
-        <v>0.4642857142857143</v>
+        <v>0.10526315789473684</v>
       </c>
       <c r="Y6" s="1">
         <f t="shared" si="3"/>
-        <v>0.66666666666666663</v>
+        <v>0.25</v>
       </c>
       <c r="Z6" s="1">
         <f t="shared" si="3"/>
-        <v>0.53846153846153844</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G7">
         <v>3</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J7">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="K7">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O7" s="1">
         <f t="shared" ref="O7:Q7" si="4">B7/B8</f>
-        <v>1</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="4"/>
-        <v>0.75</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="Q7" s="1">
         <f t="shared" si="4"/>
-        <v>0.25</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" ref="R7:Z7" si="5">E7/E8</f>
-        <v>0</v>
+        <v>0.70588235294117652</v>
       </c>
       <c r="S7" s="1">
         <f t="shared" si="5"/>
-        <v>0.16666666666666666</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="T7" s="1">
         <f t="shared" si="5"/>
@@ -4141,68 +4075,68 @@
       </c>
       <c r="U7" s="1">
         <f t="shared" si="5"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.5</v>
       </c>
       <c r="V7" s="1">
         <f t="shared" si="5"/>
-        <v>0.15789473684210525</v>
+        <v>0.25</v>
       </c>
       <c r="W7" s="1">
         <f t="shared" si="5"/>
-        <v>0.7142857142857143</v>
+        <v>0.15789473684210525</v>
       </c>
       <c r="X7" s="1">
         <f t="shared" si="5"/>
-        <v>0.42857142857142855</v>
+        <v>0.89473684210526316</v>
       </c>
       <c r="Y7" s="1">
         <f t="shared" si="5"/>
-        <v>0.13333333333333333</v>
+        <v>0.625</v>
       </c>
       <c r="Z7" s="1">
         <f t="shared" si="5"/>
-        <v>0.38461538461538464</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F8">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G8">
         <v>14</v>
       </c>
       <c r="H8">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I8">
+        <v>8</v>
+      </c>
+      <c r="J8">
         <v>19</v>
       </c>
-      <c r="J8">
-        <v>28</v>
-      </c>
       <c r="K8">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -4217,7 +4151,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -4231,7 +4165,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -4248,21 +4182,21 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F11">
         <v>6</v>
@@ -4271,42 +4205,42 @@
         <v>3</v>
       </c>
       <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>7</v>
+      </c>
+      <c r="K11">
         <v>4</v>
       </c>
-      <c r="I11">
-        <v>7</v>
-      </c>
-      <c r="J11">
-        <v>8</v>
-      </c>
-      <c r="K11">
-        <v>10</v>
-      </c>
       <c r="L11">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="M11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O11" s="1">
         <f t="shared" ref="O11:Q11" si="6">B11/B24</f>
-        <v>0.22222222222222221</v>
+        <v>0.61111111111111116</v>
       </c>
       <c r="P11" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.61111111111111116</v>
       </c>
       <c r="Q11" s="1">
         <f t="shared" si="6"/>
-        <v>0.75</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="R11" s="1">
         <f t="shared" ref="R11:Z11" si="7">E11/E24</f>
-        <v>0</v>
+        <v>0.23529411764705882</v>
       </c>
       <c r="S11" s="1">
         <f t="shared" si="7"/>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="T11" s="1">
         <f t="shared" si="7"/>
@@ -4314,88 +4248,88 @@
       </c>
       <c r="U11" s="1">
         <f t="shared" si="7"/>
-        <v>0.26666666666666666</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="V11" s="1">
         <f t="shared" si="7"/>
-        <v>0.36842105263157893</v>
+        <v>0.375</v>
       </c>
       <c r="W11" s="1">
         <f t="shared" si="7"/>
-        <v>0.2857142857142857</v>
+        <v>0.36842105263157893</v>
       </c>
       <c r="X11" s="1">
         <f t="shared" si="7"/>
-        <v>0.35714285714285715</v>
+        <v>0.21052631578947367</v>
       </c>
       <c r="Y11" s="1">
         <f t="shared" si="7"/>
-        <v>0.56666666666666665</v>
+        <v>0.3125</v>
       </c>
       <c r="Z11" s="1">
         <f t="shared" si="7"/>
-        <v>0.38461538461538464</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
         <v>5</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
       <c r="D12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G12">
         <v>5</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>4</v>
       </c>
       <c r="J12">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K12">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O12" s="1">
         <f t="shared" ref="O12:Q12" si="8">B12/B24</f>
-        <v>0.55555555555555558</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P12" s="1">
         <f t="shared" si="8"/>
-        <v>0.125</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="Q12" s="1">
         <f t="shared" si="8"/>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="R12" s="1">
         <f t="shared" ref="R12:Z12" si="9">E12/E24</f>
-        <v>0</v>
+        <v>0.29411764705882354</v>
       </c>
       <c r="S12" s="1">
         <f t="shared" si="9"/>
-        <v>0.25</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="T12" s="1">
         <f t="shared" si="9"/>
@@ -4403,88 +4337,88 @@
       </c>
       <c r="U12" s="1">
         <f t="shared" si="9"/>
-        <v>0.33333333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="V12" s="1">
         <f t="shared" si="9"/>
-        <v>0.21052631578947367</v>
+        <v>0.5</v>
       </c>
       <c r="W12" s="1">
         <f t="shared" si="9"/>
-        <v>0.32142857142857145</v>
+        <v>0.21052631578947367</v>
       </c>
       <c r="X12" s="1">
         <f t="shared" si="9"/>
-        <v>0.35714285714285715</v>
+        <v>0.31578947368421051</v>
       </c>
       <c r="Y12" s="1">
         <f t="shared" si="9"/>
-        <v>0.23333333333333334</v>
+        <v>0.375</v>
       </c>
       <c r="Z12" s="1">
         <f t="shared" si="9"/>
-        <v>0.38461538461538464</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G13">
         <v>14</v>
       </c>
       <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
         <v>4</v>
       </c>
-      <c r="I13">
-        <v>4</v>
-      </c>
-      <c r="J13">
-        <v>9</v>
-      </c>
       <c r="K13">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M13">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O13" s="1">
         <f t="shared" ref="O13:Q13" si="10">B13/B24</f>
-        <v>0</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="P13" s="1">
         <f t="shared" si="10"/>
-        <v>0.875</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Q13" s="1">
         <f t="shared" si="10"/>
-        <v>0.125</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="R13" s="1">
         <f t="shared" ref="R13:Z13" si="11">E13/E24</f>
-        <v>0.5</v>
+        <v>0.58823529411764708</v>
       </c>
       <c r="S13" s="1">
         <f t="shared" si="11"/>
-        <v>0.25</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="T13" s="1">
         <f t="shared" si="11"/>
@@ -4492,44 +4426,44 @@
       </c>
       <c r="U13" s="1">
         <f t="shared" si="11"/>
-        <v>0.26666666666666666</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="V13" s="1">
         <f t="shared" si="11"/>
-        <v>0.21052631578947367</v>
+        <v>0.25</v>
       </c>
       <c r="W13" s="1">
         <f t="shared" si="11"/>
-        <v>0.32142857142857145</v>
+        <v>0.21052631578947367</v>
       </c>
       <c r="X13" s="1">
         <f t="shared" si="11"/>
-        <v>0.6071428571428571</v>
+        <v>0.10526315789473684</v>
       </c>
       <c r="Y13" s="1">
         <f t="shared" si="11"/>
-        <v>0.33333333333333331</v>
+        <v>0.4375</v>
       </c>
       <c r="Z13" s="1">
         <f t="shared" si="11"/>
-        <v>0.53846153846153844</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -4544,36 +4478,36 @@
         <v>3</v>
       </c>
       <c r="J14">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O14" s="1">
         <f t="shared" ref="O14:Q14" si="12">B14/B24</f>
-        <v>0.33333333333333331</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="P14" s="1">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="Q14" s="1">
         <f t="shared" si="12"/>
-        <v>0.25</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="R14" s="1">
         <f t="shared" ref="R14:Z14" si="13">E14/E24</f>
-        <v>0</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="S14" s="1">
         <f t="shared" si="13"/>
-        <v>8.3333333333333329E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="T14" s="1">
         <f t="shared" si="13"/>
@@ -4581,88 +4515,88 @@
       </c>
       <c r="U14" s="1">
         <f t="shared" si="13"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="V14" s="1">
         <f t="shared" si="13"/>
-        <v>0.15789473684210525</v>
+        <v>0.375</v>
       </c>
       <c r="W14" s="1">
         <f t="shared" si="13"/>
-        <v>0.32142857142857145</v>
+        <v>0.15789473684210525</v>
       </c>
       <c r="X14" s="1">
         <f t="shared" si="13"/>
-        <v>7.1428571428571425E-2</v>
+        <v>0.26315789473684209</v>
       </c>
       <c r="Y14" s="1">
         <f t="shared" si="13"/>
-        <v>0.13333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="Z14" s="1">
         <f t="shared" si="13"/>
-        <v>0.30769230769230771</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
         <v>4</v>
       </c>
-      <c r="I15">
+      <c r="K15">
+        <v>6</v>
+      </c>
+      <c r="L15">
         <v>4</v>
       </c>
-      <c r="J15">
-        <v>8</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>3</v>
-      </c>
       <c r="M15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O15" s="1">
         <f t="shared" ref="O15:Q15" si="14">B15/B24</f>
-        <v>0.33333333333333331</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="P15" s="1">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="Q15" s="1">
         <f t="shared" si="14"/>
-        <v>0.125</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="R15" s="1">
         <f t="shared" ref="R15:Z15" si="15">E15/E24</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S15" s="1">
         <f t="shared" si="15"/>
-        <v>0.16666666666666666</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="T15" s="1">
         <f t="shared" si="15"/>
@@ -4670,88 +4604,88 @@
       </c>
       <c r="U15" s="1">
         <f t="shared" si="15"/>
-        <v>0.26666666666666666</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="V15" s="1">
         <f t="shared" si="15"/>
-        <v>0.21052631578947367</v>
+        <v>0</v>
       </c>
       <c r="W15" s="1">
         <f t="shared" si="15"/>
-        <v>0.2857142857142857</v>
+        <v>0.21052631578947367</v>
       </c>
       <c r="X15" s="1">
         <f t="shared" si="15"/>
-        <v>3.5714285714285712E-2</v>
+        <v>0.31578947368421051</v>
       </c>
       <c r="Y15" s="1">
         <f t="shared" si="15"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="Z15" s="1">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F16">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G16">
         <v>8</v>
       </c>
       <c r="H16">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J16">
         <v>7</v>
       </c>
       <c r="K16">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="L16">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="M16">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O16" s="1">
         <f t="shared" ref="O16:Q16" si="16">B16/B24</f>
-        <v>0.1111111111111111</v>
+        <v>0.61111111111111116</v>
       </c>
       <c r="P16" s="1">
         <f t="shared" si="16"/>
-        <v>0.75</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="Q16" s="1">
         <f t="shared" si="16"/>
-        <v>0.5</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="R16" s="1">
         <f t="shared" ref="R16:Z16" si="17">E16/E24</f>
-        <v>0</v>
+        <v>0.52941176470588236</v>
       </c>
       <c r="S16" s="1">
         <f t="shared" si="17"/>
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="T16" s="1">
         <f t="shared" si="17"/>
@@ -4759,27 +4693,27 @@
       </c>
       <c r="U16" s="1">
         <f t="shared" si="17"/>
-        <v>0.53333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="V16" s="1">
         <f t="shared" si="17"/>
-        <v>0.36842105263157893</v>
+        <v>0.75</v>
       </c>
       <c r="W16" s="1">
         <f t="shared" si="17"/>
-        <v>0.25</v>
+        <v>0.36842105263157893</v>
       </c>
       <c r="X16" s="1">
         <f t="shared" si="17"/>
-        <v>0.5714285714285714</v>
+        <v>0.21052631578947367</v>
       </c>
       <c r="Y16" s="1">
         <f t="shared" si="17"/>
-        <v>0.4</v>
+        <v>0.1875</v>
       </c>
       <c r="Z16" s="1">
         <f t="shared" si="17"/>
-        <v>0.69230769230769229</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
@@ -4787,52 +4721,52 @@
         <v>14</v>
       </c>
       <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <v>10</v>
+      </c>
+      <c r="L17">
+        <v>5</v>
+      </c>
+      <c r="M17">
         <v>4</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>4</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>3</v>
-      </c>
-      <c r="I17">
-        <v>3</v>
-      </c>
-      <c r="J17">
-        <v>11</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>2</v>
-      </c>
-      <c r="M17">
-        <v>2</v>
       </c>
       <c r="O17" s="1">
         <f t="shared" ref="O17:Q17" si="18">B17/B24</f>
-        <v>0.44444444444444442</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="P17" s="1">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="Q17" s="1">
         <f t="shared" si="18"/>
-        <v>0.125</v>
+        <v>0.2</v>
       </c>
       <c r="R17" s="1">
         <f t="shared" ref="R17:Z17" si="19">E17/E24</f>
@@ -4840,7 +4774,7 @@
       </c>
       <c r="S17" s="1">
         <f t="shared" si="19"/>
-        <v>0.33333333333333331</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="T17" s="1">
         <f t="shared" si="19"/>
@@ -4848,88 +4782,88 @@
       </c>
       <c r="U17" s="1">
         <f t="shared" si="19"/>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="V17" s="1">
         <f t="shared" si="19"/>
-        <v>0.15789473684210525</v>
+        <v>0.125</v>
       </c>
       <c r="W17" s="1">
         <f t="shared" si="19"/>
-        <v>0.39285714285714285</v>
+        <v>0.15789473684210525</v>
       </c>
       <c r="X17" s="1">
         <f t="shared" si="19"/>
-        <v>3.5714285714285712E-2</v>
+        <v>0.52631578947368418</v>
       </c>
       <c r="Y17" s="1">
         <f t="shared" si="19"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.3125</v>
       </c>
       <c r="Z17" s="1">
         <f t="shared" si="19"/>
-        <v>0.15384615384615385</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G18">
         <v>7</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
         <v>4</v>
       </c>
-      <c r="J18">
-        <v>8</v>
-      </c>
       <c r="K18">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="L18">
         <v>4</v>
       </c>
       <c r="M18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O18" s="1">
         <f t="shared" ref="O18:Q18" si="20">B18/B24</f>
-        <v>0.55555555555555558</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="P18" s="1">
         <f t="shared" si="20"/>
-        <v>0.25</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="Q18" s="1">
         <f t="shared" si="20"/>
-        <v>0.375</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="R18" s="1">
         <f t="shared" ref="R18:Z18" si="21">E18/E24</f>
-        <v>0.5</v>
+        <v>0.41176470588235292</v>
       </c>
       <c r="S18" s="1">
         <f t="shared" si="21"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="T18" s="1">
         <f t="shared" si="21"/>
@@ -4937,88 +4871,88 @@
       </c>
       <c r="U18" s="1">
         <f t="shared" si="21"/>
-        <v>0.13333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="V18" s="1">
         <f t="shared" si="21"/>
-        <v>0.21052631578947367</v>
+        <v>0.25</v>
       </c>
       <c r="W18" s="1">
         <f t="shared" si="21"/>
-        <v>0.2857142857142857</v>
+        <v>0.21052631578947367</v>
       </c>
       <c r="X18" s="1">
         <f t="shared" si="21"/>
-        <v>0.39285714285714285</v>
+        <v>0.36842105263157893</v>
       </c>
       <c r="Y18" s="1">
         <f t="shared" si="21"/>
-        <v>0.13333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="Z18" s="1">
         <f t="shared" si="21"/>
-        <v>0.38461538461538464</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>8</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+      <c r="J19">
+        <v>7</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
         <v>4</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>4</v>
-      </c>
-      <c r="G19">
-        <v>3</v>
-      </c>
-      <c r="H19">
-        <v>5</v>
-      </c>
-      <c r="I19">
-        <v>7</v>
-      </c>
-      <c r="J19">
-        <v>2</v>
-      </c>
-      <c r="K19">
-        <v>8</v>
-      </c>
-      <c r="L19">
-        <v>11</v>
-      </c>
-      <c r="M19">
-        <v>3</v>
       </c>
       <c r="O19" s="1">
         <f t="shared" ref="O19:Q19" si="22">B19/B24</f>
-        <v>0.1111111111111111</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P19" s="1">
         <f t="shared" si="22"/>
-        <v>0.5</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="Q19" s="1">
         <f t="shared" si="22"/>
-        <v>0.25</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="R19" s="1">
         <f t="shared" ref="R19:Z19" si="23">E19/E24</f>
-        <v>0.5</v>
+        <v>0.47058823529411764</v>
       </c>
       <c r="S19" s="1">
         <f t="shared" si="23"/>
-        <v>0.33333333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="T19" s="1">
         <f t="shared" si="23"/>
@@ -5026,47 +4960,47 @@
       </c>
       <c r="U19" s="1">
         <f t="shared" si="23"/>
-        <v>0.33333333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="V19" s="1">
         <f t="shared" si="23"/>
-        <v>0.36842105263157893</v>
+        <v>0.375</v>
       </c>
       <c r="W19" s="1">
         <f t="shared" si="23"/>
-        <v>7.1428571428571425E-2</v>
+        <v>0.36842105263157893</v>
       </c>
       <c r="X19" s="1">
         <f t="shared" si="23"/>
-        <v>0.2857142857142857</v>
+        <v>0.10526315789473684</v>
       </c>
       <c r="Y19" s="1">
         <f t="shared" si="23"/>
-        <v>0.36666666666666664</v>
+        <v>6.25E-2</v>
       </c>
       <c r="Z19" s="1">
         <f t="shared" si="23"/>
-        <v>0.23076923076923078</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G20">
         <v>10</v>
@@ -5075,39 +5009,39 @@
         <v>2</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K20">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O20" s="1">
         <f t="shared" ref="O20:Q20" si="24">B20/B24</f>
-        <v>0</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="P20" s="1">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="Q20" s="1">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="R20" s="1">
         <f t="shared" ref="R20:Z20" si="25">E20/E24</f>
-        <v>0.5</v>
+        <v>0.52941176470588236</v>
       </c>
       <c r="S20" s="1">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T20" s="1">
         <f t="shared" si="25"/>
@@ -5115,38 +5049,38 @@
       </c>
       <c r="U20" s="1">
         <f t="shared" si="25"/>
-        <v>0.13333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="V20" s="1">
         <f t="shared" si="25"/>
-        <v>0.10526315789473684</v>
+        <v>0.125</v>
       </c>
       <c r="W20" s="1">
         <f t="shared" si="25"/>
-        <v>3.5714285714285712E-2</v>
+        <v>0.10526315789473684</v>
       </c>
       <c r="X20" s="1">
         <f t="shared" si="25"/>
-        <v>0.39285714285714285</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="Y20" s="1">
         <f t="shared" si="25"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
         <f t="shared" si="25"/>
-        <v>0.23076923076923078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -5164,19 +5098,19 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" s="1">
         <f t="shared" ref="O21:Q21" si="26">B21/B24</f>
@@ -5184,7 +5118,7 @@
       </c>
       <c r="P21" s="1">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="Q21" s="1">
         <f t="shared" si="26"/>
@@ -5196,7 +5130,7 @@
       </c>
       <c r="S21" s="1">
         <f t="shared" si="27"/>
-        <v>8.3333333333333329E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="T21" s="1">
         <f t="shared" si="27"/>
@@ -5208,23 +5142,23 @@
       </c>
       <c r="V21" s="1">
         <f t="shared" si="27"/>
-        <v>0.15789473684210525</v>
+        <v>0</v>
       </c>
       <c r="W21" s="1">
         <f t="shared" si="27"/>
-        <v>0.14285714285714285</v>
+        <v>0.15789473684210525</v>
       </c>
       <c r="X21" s="1">
         <f t="shared" si="27"/>
-        <v>3.5714285714285712E-2</v>
+        <v>0.15789473684210525</v>
       </c>
       <c r="Y21" s="1">
         <f t="shared" si="27"/>
-        <v>3.3333333333333333E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="Z21" s="1">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
@@ -5232,16 +5166,16 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>2</v>
@@ -5250,42 +5184,42 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
         <v>7</v>
       </c>
-      <c r="J22">
-        <v>6</v>
-      </c>
       <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
         <v>5</v>
       </c>
-      <c r="L22">
-        <v>7</v>
-      </c>
       <c r="M22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O22" s="1">
         <f t="shared" ref="O22:Q22" si="28">B22/B24</f>
-        <v>0.33333333333333331</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="P22" s="1">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="Q22" s="1">
         <f t="shared" si="28"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="R22" s="1">
         <f t="shared" ref="R22:Z22" si="29">E22/E24</f>
-        <v>0</v>
+        <v>0.17647058823529413</v>
       </c>
       <c r="S22" s="1">
         <f t="shared" si="29"/>
-        <v>0.16666666666666666</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="T22" s="1">
         <f t="shared" si="29"/>
@@ -5293,27 +5227,27 @@
       </c>
       <c r="U22" s="1">
         <f t="shared" si="29"/>
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="V22" s="1">
         <f t="shared" si="29"/>
-        <v>0.36842105263157893</v>
+        <v>0.125</v>
       </c>
       <c r="W22" s="1">
         <f t="shared" si="29"/>
-        <v>0.21428571428571427</v>
+        <v>0.36842105263157893</v>
       </c>
       <c r="X22" s="1">
         <f t="shared" si="29"/>
-        <v>0.17857142857142858</v>
+        <v>0.15789473684210525</v>
       </c>
       <c r="Y22" s="1">
         <f t="shared" si="29"/>
-        <v>0.23333333333333334</v>
+        <v>0.3125</v>
       </c>
       <c r="Z22" s="1">
         <f t="shared" si="29"/>
-        <v>0.23076923076923078</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
@@ -5321,60 +5255,60 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D23">
+        <v>9</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
         <v>4</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>6</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>9</v>
       </c>
       <c r="I23">
         <v>4</v>
       </c>
       <c r="J23">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K23">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="M23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O23" s="1">
         <f t="shared" ref="O23:Q23" si="30">B23/B24</f>
-        <v>0.22222222222222221</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="P23" s="1">
         <f t="shared" si="30"/>
-        <v>0.125</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="Q23" s="1">
         <f t="shared" si="30"/>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="R23" s="1">
         <f t="shared" ref="R23:Z23" si="31">E23/E24</f>
-        <v>0.5</v>
+        <v>0.29411764705882354</v>
       </c>
       <c r="S23" s="1">
         <f t="shared" si="31"/>
-        <v>0.5</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="T23" s="1">
         <f t="shared" si="31"/>
@@ -5382,27 +5316,27 @@
       </c>
       <c r="U23" s="1">
         <f t="shared" si="31"/>
-        <v>0.6</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="V23" s="1">
         <f t="shared" si="31"/>
-        <v>0.21052631578947367</v>
+        <v>0.5</v>
       </c>
       <c r="W23" s="1">
         <f t="shared" si="31"/>
-        <v>0.2857142857142857</v>
+        <v>0.21052631578947367</v>
       </c>
       <c r="X23" s="1">
         <f t="shared" si="31"/>
-        <v>0.32142857142857145</v>
+        <v>0.15789473684210525</v>
       </c>
       <c r="Y23" s="1">
         <f t="shared" si="31"/>
-        <v>0.6333333333333333</v>
+        <v>0.4375</v>
       </c>
       <c r="Z23" s="1">
         <f t="shared" si="31"/>
-        <v>0.53846153846153844</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
@@ -5410,40 +5344,40 @@
         <v>8</v>
       </c>
       <c r="B24">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C24">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D24">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F24">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G24">
         <v>14</v>
       </c>
       <c r="H24">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I24">
+        <v>8</v>
+      </c>
+      <c r="J24">
         <v>19</v>
       </c>
-      <c r="J24">
-        <v>28</v>
-      </c>
       <c r="K24">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="L24">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M24">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -5494,31 +5428,31 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G27">
         <v>5</v>
       </c>
       <c r="H27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J27">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K27">
         <v>6</v>
@@ -5527,27 +5461,27 @@
         <v>4</v>
       </c>
       <c r="M27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O27" s="1">
         <f t="shared" ref="O27:Q27" si="32">B27/B37</f>
-        <v>0.55555555555555558</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="P27" s="1">
         <f t="shared" si="32"/>
-        <v>0.125</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="Q27" s="1">
         <f t="shared" si="32"/>
-        <v>0.125</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="R27" s="1">
         <f t="shared" ref="R27:Z27" si="33">E27/E37</f>
-        <v>0</v>
+        <v>0.17647058823529413</v>
       </c>
       <c r="S27" s="1">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="T27" s="1">
         <f t="shared" si="33"/>
@@ -5555,27 +5489,27 @@
       </c>
       <c r="U27" s="1">
         <f t="shared" si="33"/>
-        <v>0.26666666666666666</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="V27" s="1">
         <f t="shared" si="33"/>
-        <v>0.10526315789473684</v>
+        <v>0.375</v>
       </c>
       <c r="W27" s="1">
         <f t="shared" si="33"/>
-        <v>0.25</v>
+        <v>0.10526315789473684</v>
       </c>
       <c r="X27" s="1">
         <f t="shared" si="33"/>
-        <v>0.21428571428571427</v>
+        <v>0.31578947368421051</v>
       </c>
       <c r="Y27" s="1">
         <f t="shared" si="33"/>
-        <v>0.13333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="Z27" s="1">
         <f t="shared" si="33"/>
-        <v>0.30769230769230771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
@@ -5583,60 +5517,60 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F28">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G28">
         <v>8</v>
       </c>
       <c r="H28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I28">
+        <v>4</v>
+      </c>
+      <c r="J28">
         <v>6</v>
       </c>
-      <c r="J28">
-        <v>8</v>
-      </c>
       <c r="K28">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="L28">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O28" s="1">
         <f t="shared" ref="O28:Q28" si="34">B28/B37</f>
-        <v>0.33333333333333331</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="P28" s="1">
         <f t="shared" si="34"/>
-        <v>0.875</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="Q28" s="1">
         <f t="shared" si="34"/>
-        <v>0.125</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="R28" s="1">
         <f t="shared" ref="R28:Z28" si="35">E28/E37</f>
-        <v>0.5</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="S28" s="1">
         <f t="shared" si="35"/>
-        <v>0.33333333333333331</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="T28" s="1">
         <f t="shared" si="35"/>
@@ -5648,23 +5582,23 @@
       </c>
       <c r="V28" s="1">
         <f t="shared" si="35"/>
-        <v>0.31578947368421051</v>
+        <v>0.5</v>
       </c>
       <c r="W28" s="1">
         <f t="shared" si="35"/>
-        <v>0.2857142857142857</v>
+        <v>0.31578947368421051</v>
       </c>
       <c r="X28" s="1">
         <f t="shared" si="35"/>
-        <v>0.4642857142857143</v>
+        <v>0.36842105263157893</v>
       </c>
       <c r="Y28" s="1">
         <f t="shared" si="35"/>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="Z28" s="1">
         <f t="shared" si="35"/>
-        <v>0.38461538461538464</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
@@ -5672,40 +5606,40 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D29">
         <v>2</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F29">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G29">
         <v>7</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I29">
+        <v>7</v>
+      </c>
+      <c r="J29">
         <v>10</v>
       </c>
-      <c r="J29">
-        <v>16</v>
-      </c>
       <c r="K29">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L29">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M29">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="O29" s="1">
         <f t="shared" ref="O29:Q29" si="36">B29/B37</f>
@@ -5713,19 +5647,19 @@
       </c>
       <c r="P29" s="1">
         <f t="shared" si="36"/>
-        <v>0.875</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="Q29" s="1">
         <f t="shared" si="36"/>
-        <v>0.25</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="R29" s="1">
         <f t="shared" ref="R29:Z29" si="37">E29/E37</f>
-        <v>1</v>
+        <v>0.52941176470588236</v>
       </c>
       <c r="S29" s="1">
         <f t="shared" si="37"/>
-        <v>0.58333333333333337</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="T29" s="1">
         <f t="shared" si="37"/>
@@ -5733,27 +5667,27 @@
       </c>
       <c r="U29" s="1">
         <f t="shared" si="37"/>
-        <v>0.13333333333333333</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="V29" s="1">
         <f t="shared" si="37"/>
-        <v>0.52631578947368418</v>
+        <v>0.875</v>
       </c>
       <c r="W29" s="1">
         <f t="shared" si="37"/>
-        <v>0.5714285714285714</v>
+        <v>0.52631578947368418</v>
       </c>
       <c r="X29" s="1">
         <f t="shared" si="37"/>
-        <v>0.39285714285714285</v>
+        <v>0.47368421052631576</v>
       </c>
       <c r="Y29" s="1">
         <f t="shared" si="37"/>
-        <v>0.26666666666666666</v>
+        <v>0.625</v>
       </c>
       <c r="Z29" s="1">
         <f t="shared" si="37"/>
-        <v>0.84615384615384615</v>
+        <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
@@ -5761,60 +5695,60 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L30">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30" s="1">
         <f t="shared" ref="O30:Q30" si="38">B30/B37</f>
-        <v>0</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="P30" s="1">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="Q30" s="1">
         <f t="shared" si="38"/>
-        <v>0.125</v>
+        <v>0.6</v>
       </c>
       <c r="R30" s="1">
         <f t="shared" ref="R30:Z30" si="39">E30/E37</f>
-        <v>0</v>
+        <v>0.17647058823529413</v>
       </c>
       <c r="S30" s="1">
         <f t="shared" si="39"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="T30" s="1">
         <f t="shared" si="39"/>
@@ -5822,7 +5756,7 @@
       </c>
       <c r="U30" s="1">
         <f t="shared" si="39"/>
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="V30" s="1">
         <f t="shared" si="39"/>
@@ -5830,19 +5764,19 @@
       </c>
       <c r="W30" s="1">
         <f t="shared" si="39"/>
-        <v>7.1428571428571425E-2</v>
+        <v>0</v>
       </c>
       <c r="X30" s="1">
         <f t="shared" si="39"/>
-        <v>0.21428571428571427</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="Y30" s="1">
         <f t="shared" si="39"/>
-        <v>0.36666666666666664</v>
+        <v>6.25E-2</v>
       </c>
       <c r="Z30" s="1">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
@@ -5850,60 +5784,60 @@
         <v>14</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>13</v>
+      </c>
+      <c r="L31">
+        <v>6</v>
+      </c>
+      <c r="M31">
         <v>4</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>2</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="J31">
-        <v>14</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>3</v>
-      </c>
-      <c r="M31">
-        <v>1</v>
       </c>
       <c r="O31" s="1">
         <f t="shared" ref="O31:Q31" si="40">B31/B37</f>
-        <v>0.55555555555555558</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="P31" s="1">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="Q31" s="1">
         <f t="shared" si="40"/>
-        <v>0.125</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="R31" s="1">
         <f t="shared" ref="R31:Z31" si="41">E31/E37</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S31" s="1">
         <f t="shared" si="41"/>
-        <v>0.33333333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="T31" s="1">
         <f t="shared" si="41"/>
@@ -5911,27 +5845,27 @@
       </c>
       <c r="U31" s="1">
         <f t="shared" si="41"/>
-        <v>0.13333333333333333</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="V31" s="1">
         <f t="shared" si="41"/>
-        <v>5.2631578947368418E-2</v>
+        <v>0.125</v>
       </c>
       <c r="W31" s="1">
         <f t="shared" si="41"/>
-        <v>0.5</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="X31" s="1">
         <f t="shared" si="41"/>
-        <v>0.10714285714285714</v>
+        <v>0.68421052631578949</v>
       </c>
       <c r="Y31" s="1">
         <f t="shared" si="41"/>
-        <v>0.1</v>
+        <v>0.375</v>
       </c>
       <c r="Z31" s="1">
         <f t="shared" si="41"/>
-        <v>7.6923076923076927E-2</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
@@ -5939,60 +5873,60 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D32">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F32">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G32">
         <v>6</v>
       </c>
       <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <v>5</v>
+      </c>
+      <c r="J32">
+        <v>7</v>
+      </c>
+      <c r="K32">
         <v>8</v>
       </c>
-      <c r="I32">
+      <c r="L32">
         <v>7</v>
-      </c>
-      <c r="J32">
-        <v>12</v>
-      </c>
-      <c r="K32">
-        <v>11</v>
-      </c>
-      <c r="L32">
-        <v>16</v>
       </c>
       <c r="M32">
         <v>6</v>
       </c>
       <c r="O32" s="1">
         <f t="shared" ref="O32:Q32" si="42">B32/B37</f>
-        <v>0.55555555555555558</v>
+        <v>0.5</v>
       </c>
       <c r="P32" s="1">
         <f t="shared" si="42"/>
-        <v>0.375</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="Q32" s="1">
         <f t="shared" si="42"/>
-        <v>0.625</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="R32" s="1">
         <f t="shared" ref="R32:Z32" si="43">E32/E37</f>
-        <v>0.5</v>
+        <v>0.35294117647058826</v>
       </c>
       <c r="S32" s="1">
         <f t="shared" si="43"/>
-        <v>0.5</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="T32" s="1">
         <f t="shared" si="43"/>
@@ -6000,27 +5934,27 @@
       </c>
       <c r="U32" s="1">
         <f t="shared" si="43"/>
-        <v>0.53333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="V32" s="1">
         <f t="shared" si="43"/>
-        <v>0.36842105263157893</v>
+        <v>0.625</v>
       </c>
       <c r="W32" s="1">
         <f t="shared" si="43"/>
-        <v>0.42857142857142855</v>
+        <v>0.36842105263157893</v>
       </c>
       <c r="X32" s="1">
         <f t="shared" si="43"/>
-        <v>0.39285714285714285</v>
+        <v>0.42105263157894735</v>
       </c>
       <c r="Y32" s="1">
         <f t="shared" si="43"/>
-        <v>0.53333333333333333</v>
+        <v>0.4375</v>
       </c>
       <c r="Z32" s="1">
         <f t="shared" si="43"/>
-        <v>0.46153846153846156</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
@@ -6028,16 +5962,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>4</v>
@@ -6046,42 +5980,42 @@
         <v>4</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J33">
         <v>5</v>
       </c>
       <c r="K33">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L33">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="M33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O33" s="1">
         <f t="shared" ref="O33:Q33" si="44">B33/B37</f>
-        <v>0.22222222222222221</v>
+        <v>0.5</v>
       </c>
       <c r="P33" s="1">
         <f t="shared" si="44"/>
-        <v>0.125</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Q33" s="1">
         <f t="shared" si="44"/>
-        <v>0.625</v>
+        <v>0.2</v>
       </c>
       <c r="R33" s="1">
         <f t="shared" ref="R33:Z33" si="45">E33/E37</f>
-        <v>0</v>
+        <v>0.17647058823529413</v>
       </c>
       <c r="S33" s="1">
         <f t="shared" si="45"/>
-        <v>0.33333333333333331</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="T33" s="1">
         <f t="shared" si="45"/>
@@ -6089,27 +6023,27 @@
       </c>
       <c r="U33" s="1">
         <f t="shared" si="45"/>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="V33" s="1">
         <f t="shared" si="45"/>
-        <v>0.26315789473684209</v>
+        <v>0.125</v>
       </c>
       <c r="W33" s="1">
         <f t="shared" si="45"/>
-        <v>0.17857142857142858</v>
+        <v>0.26315789473684209</v>
       </c>
       <c r="X33" s="1">
         <f t="shared" si="45"/>
-        <v>0.21428571428571427</v>
+        <v>0.21052631578947367</v>
       </c>
       <c r="Y33" s="1">
         <f t="shared" si="45"/>
-        <v>0.4</v>
+        <v>0.125</v>
       </c>
       <c r="Z33" s="1">
         <f t="shared" si="45"/>
-        <v>0.15384615384615385</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
@@ -6120,57 +6054,57 @@
         <v>8</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F34">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G34">
         <v>7</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34">
         <v>11</v>
       </c>
-      <c r="J34">
-        <v>22</v>
-      </c>
       <c r="K34">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="L34">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="M34">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O34" s="1">
         <f t="shared" ref="O34:Q34" si="46">B34/B37</f>
-        <v>0.88888888888888884</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="P34" s="1">
         <f t="shared" si="46"/>
-        <v>0.25</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="Q34" s="1">
         <f t="shared" si="46"/>
-        <v>0.5</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="R34" s="1">
         <f t="shared" ref="R34:Z34" si="47">E34/E37</f>
-        <v>0</v>
+        <v>0.29411764705882354</v>
       </c>
       <c r="S34" s="1">
         <f t="shared" si="47"/>
-        <v>0.75</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="T34" s="1">
         <f t="shared" si="47"/>
@@ -6178,68 +6112,68 @@
       </c>
       <c r="U34" s="1">
         <f t="shared" si="47"/>
-        <v>0.13333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="V34" s="1">
         <f t="shared" si="47"/>
-        <v>0.57894736842105265</v>
+        <v>0.25</v>
       </c>
       <c r="W34" s="1">
         <f t="shared" si="47"/>
-        <v>0.7857142857142857</v>
+        <v>0.57894736842105265</v>
       </c>
       <c r="X34" s="1">
         <f t="shared" si="47"/>
-        <v>0.35714285714285715</v>
+        <v>0.73684210526315785</v>
       </c>
       <c r="Y34" s="1">
         <f t="shared" si="47"/>
-        <v>0.26666666666666666</v>
+        <v>0.875</v>
       </c>
       <c r="Z34" s="1">
         <f t="shared" si="47"/>
-        <v>0.38461538461538464</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35">
         <v>3</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O35" s="1">
         <f t="shared" ref="O35:Q35" si="48">B35/B37</f>
@@ -6247,7 +6181,7 @@
       </c>
       <c r="P35" s="1">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="Q35" s="1">
         <f t="shared" si="48"/>
@@ -6255,11 +6189,11 @@
       </c>
       <c r="R35" s="1">
         <f t="shared" ref="R35:Z35" si="49">E35/E37</f>
-        <v>0</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="S35" s="1">
         <f t="shared" si="49"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0</v>
       </c>
       <c r="T35" s="1">
         <f t="shared" si="49"/>
@@ -6267,27 +6201,27 @@
       </c>
       <c r="U35" s="1">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="V35" s="1">
         <f t="shared" si="49"/>
-        <v>0.15789473684210525</v>
+        <v>0.25</v>
       </c>
       <c r="W35" s="1">
         <f t="shared" si="49"/>
-        <v>3.5714285714285712E-2</v>
+        <v>0.15789473684210525</v>
       </c>
       <c r="X35" s="1">
         <f t="shared" si="49"/>
-        <v>7.1428571428571425E-2</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="1">
         <f t="shared" si="49"/>
-        <v>3.3333333333333333E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="Z35" s="1">
         <f t="shared" si="49"/>
-        <v>0.30769230769230771</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
@@ -6295,56 +6229,56 @@
         <v>33</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F36">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G36">
         <v>2</v>
       </c>
       <c r="H36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I36">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J36">
         <v>9</v>
       </c>
       <c r="K36">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L36">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M36">
         <v>4</v>
       </c>
       <c r="O36" s="1">
         <f t="shared" ref="O36:Q36" si="50">B36/B37</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P36" s="1">
         <f t="shared" si="50"/>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="1">
         <f t="shared" si="50"/>
-        <v>0.25</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="R36" s="1">
         <f t="shared" ref="R36:Z36" si="51">E36/E37</f>
-        <v>0.5</v>
+        <v>0.29411764705882354</v>
       </c>
       <c r="S36" s="1">
         <f t="shared" si="51"/>
@@ -6356,27 +6290,27 @@
       </c>
       <c r="U36" s="1">
         <f t="shared" si="51"/>
-        <v>0.26666666666666666</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="V36" s="1">
         <f t="shared" si="51"/>
-        <v>0.47368421052631576</v>
+        <v>0.25</v>
       </c>
       <c r="W36" s="1">
         <f t="shared" si="51"/>
-        <v>0.32142857142857145</v>
+        <v>0.47368421052631576</v>
       </c>
       <c r="X36" s="1">
         <f t="shared" si="51"/>
-        <v>0.32142857142857145</v>
+        <v>0.15789473684210525</v>
       </c>
       <c r="Y36" s="1">
         <f t="shared" si="51"/>
-        <v>0.13333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="Z36" s="1">
         <f t="shared" si="51"/>
-        <v>0.30769230769230771</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
@@ -6384,50 +6318,53 @@
         <v>8</v>
       </c>
       <c r="B37">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C37">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D37">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F37">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G37">
         <v>14</v>
       </c>
       <c r="H37">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I37">
+        <v>8</v>
+      </c>
+      <c r="J37">
         <v>19</v>
       </c>
-      <c r="J37">
-        <v>28</v>
-      </c>
       <c r="K37">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="L37">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M37">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:M3"/>
+  <mergeCells count="9">
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="X3:Z3"/>
   </mergeCells>
   <conditionalFormatting sqref="O11:O23">
     <cfRule type="colorScale" priority="25">
@@ -6867,916 +6804,879 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="Q42" sqref="Q42"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <f>SUM(B3,C3,D3)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E28" si="0">SUM(B4,C4,D4)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3">
-        <v>30</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4">
-        <v>16</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4">
+      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>14</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>65</v>
-      </c>
-      <c r="C7">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>140</v>
-      </c>
-      <c r="D9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10">
-        <v>45</v>
-      </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-      <c r="D10">
-        <v>14</v>
-      </c>
-      <c r="E10">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>65</v>
-      </c>
-      <c r="C11">
-        <v>9</v>
-      </c>
-      <c r="D11">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>43</v>
       </c>
       <c r="B12">
         <v>20</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D12">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13">
         <v>6</v>
       </c>
-      <c r="E12">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17">
+        <v>19</v>
+      </c>
+      <c r="C17">
+        <v>19</v>
+      </c>
+      <c r="D17">
+        <v>19</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B18">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <v>12</v>
+      </c>
+      <c r="D26">
+        <v>7</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>7</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28">
+        <v>20</v>
+      </c>
+      <c r="C28">
+        <v>20</v>
+      </c>
+      <c r="D28">
+        <v>20</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+      <c r="E31">
+        <f>SUM(B31,C31,D31)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <f>SUM(B32,C32,D32)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>20</v>
+      </c>
+      <c r="C33">
+        <v>20</v>
+      </c>
+      <c r="D33">
+        <v>20</v>
+      </c>
+      <c r="E33">
+        <f>SUM(B33,C33,D33)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34">
+        <v>18</v>
+      </c>
+      <c r="C34">
+        <v>18</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <f>SUM(B34,C34,D34)</f>
         <v>46</v>
       </c>
-      <c r="B16">
-        <v>62</v>
-      </c>
-      <c r="C16">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>2</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <f>SUM(B37,C37,D37)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <f>SUM(B38,C38,D38)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <f>SUM(B39,C39,D39)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
+        <v>5</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <f>SUM(B40,C40,D40)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
+        <v>6</v>
+      </c>
+      <c r="B41">
         <v>8</v>
       </c>
-      <c r="D16">
-        <v>19</v>
-      </c>
-      <c r="E16">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17">
-        <v>65</v>
-      </c>
-      <c r="C17">
-        <v>9</v>
-      </c>
-      <c r="D17">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
-        <v>140</v>
-      </c>
-      <c r="D19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>3</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>4</v>
-      </c>
-      <c r="B23">
-        <v>4</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>5</v>
-      </c>
-      <c r="B24">
-        <v>8</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>3</v>
-      </c>
-      <c r="E24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>6</v>
-      </c>
-      <c r="B25">
-        <v>31</v>
-      </c>
-      <c r="C25">
-        <v>5</v>
-      </c>
-      <c r="D25">
-        <v>9</v>
-      </c>
-      <c r="E25">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>7</v>
-      </c>
-      <c r="B26">
-        <v>16</v>
-      </c>
-      <c r="C26">
-        <v>3</v>
-      </c>
-      <c r="D26">
-        <v>4</v>
-      </c>
-      <c r="E26">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27">
-        <v>65</v>
-      </c>
-      <c r="C27">
-        <v>9</v>
-      </c>
-      <c r="D27">
-        <v>20</v>
-      </c>
-      <c r="E27">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" t="s">
-        <v>140</v>
-      </c>
-      <c r="D29" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30">
-        <v>12</v>
-      </c>
-      <c r="C30">
-        <v>3</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31">
-        <v>4</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>2</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32">
-        <v>65</v>
-      </c>
-      <c r="C32">
-        <v>9</v>
-      </c>
-      <c r="D32">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33">
-        <v>49</v>
-      </c>
-      <c r="C33">
-        <v>6</v>
-      </c>
-      <c r="D33">
-        <v>18</v>
-      </c>
-      <c r="E33">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" t="s">
-        <v>140</v>
-      </c>
-      <c r="D35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>2</v>
-      </c>
-      <c r="B36">
-        <v>2</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>3</v>
-      </c>
-      <c r="B37">
-        <v>2</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>4</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>5</v>
-      </c>
-      <c r="B39">
-        <v>10</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>4</v>
-      </c>
-      <c r="E39">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>6</v>
-      </c>
-      <c r="B40">
-        <v>28</v>
-      </c>
-      <c r="C40">
-        <v>6</v>
-      </c>
-      <c r="D40">
-        <v>8</v>
-      </c>
-      <c r="E40">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>7</v>
-      </c>
-      <c r="B41">
-        <v>19</v>
-      </c>
       <c r="C41">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D41">
         <v>8</v>
       </c>
       <c r="E41">
+        <f>SUM(B41,C41,D41)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
+        <v>7</v>
+      </c>
+      <c r="B42">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
         <v>8</v>
       </c>
-      <c r="B42">
-        <v>62</v>
-      </c>
-      <c r="C42">
-        <v>9</v>
-      </c>
-      <c r="D42">
+      <c r="E42">
+        <f>SUM(B42,C42,D42)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43">
         <v>20</v>
       </c>
-      <c r="E42">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>53</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="C43">
+        <v>20</v>
+      </c>
+      <c r="D43">
+        <v>20</v>
+      </c>
+      <c r="E43">
+        <f>SUM(B43,C43,D43)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
+        <v>2</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <f>SUM(B46,C46,D46)</f>
         <v>8</v>
       </c>
-      <c r="C44" t="s">
-        <v>140</v>
-      </c>
-      <c r="D44" t="s">
-        <v>2</v>
-      </c>
-      <c r="E44" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>2</v>
-      </c>
-      <c r="B45">
-        <v>9</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>3</v>
-      </c>
-      <c r="E45">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
+        <v>3</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>6</v>
+      </c>
+      <c r="E47">
+        <f>SUM(B47,C47,D47)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="7">
+        <v>4</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <f>SUM(B48,C48,D48)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>3</v>
-      </c>
-      <c r="B46">
-        <v>11</v>
-      </c>
-      <c r="C46">
-        <v>2</v>
-      </c>
-      <c r="D46">
-        <v>2</v>
-      </c>
-      <c r="E46">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>4</v>
-      </c>
-      <c r="B47">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="7">
         <v>5</v>
       </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="B49">
         <v>5</v>
-      </c>
-      <c r="B48">
-        <v>12</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48">
-        <v>5</v>
-      </c>
-      <c r="E48">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>6</v>
-      </c>
-      <c r="B49">
-        <v>20</v>
       </c>
       <c r="C49">
         <v>4</v>
       </c>
       <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49">
+        <f>SUM(B49,C49,D49)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="7">
+        <v>6</v>
+      </c>
+      <c r="B50">
         <v>8</v>
       </c>
-      <c r="E49">
+      <c r="C50">
+        <v>6</v>
+      </c>
+      <c r="D50">
+        <v>5</v>
+      </c>
+      <c r="E50">
+        <f>SUM(B50,C50,D50)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="7">
+        <v>7</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <f>SUM(B51,C51,D51)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="B52">
+        <v>20</v>
+      </c>
+      <c r="C52">
+        <v>20</v>
+      </c>
+      <c r="D52">
+        <v>20</v>
+      </c>
+      <c r="E52">
+        <f>SUM(B52,C52,D52)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="7">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <f>SUM(B55,C55,D55)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="7">
+        <v>3</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <f>SUM(B56,C56,D56)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="7">
+        <v>4</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <f>SUM(B57,C57,D57)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="7">
+        <v>5</v>
+      </c>
+      <c r="B58">
+        <v>6</v>
+      </c>
+      <c r="C58">
+        <v>5</v>
+      </c>
+      <c r="D58">
+        <v>4</v>
+      </c>
+      <c r="E58">
+        <f>SUM(B58,C58,D58)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="7">
+        <v>6</v>
+      </c>
+      <c r="B59">
+        <v>8</v>
+      </c>
+      <c r="C59">
+        <v>6</v>
+      </c>
+      <c r="D59">
         <v>7</v>
       </c>
-      <c r="B50">
-        <v>5</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="E59">
+        <f>SUM(B59,C59,D59)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="7">
+        <v>7</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60">
+        <v>4</v>
+      </c>
+      <c r="D60">
+        <v>4</v>
+      </c>
+      <c r="E60">
+        <f>SUM(B60,C60,D60)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B51">
-        <v>62</v>
-      </c>
-      <c r="C51">
-        <v>9</v>
-      </c>
-      <c r="D51">
+      <c r="B61">
         <v>20</v>
       </c>
-      <c r="E51">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" t="s">
-        <v>140</v>
-      </c>
-      <c r="D53" t="s">
-        <v>2</v>
-      </c>
-      <c r="E53" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>2</v>
-      </c>
-      <c r="B54">
-        <v>2</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>3</v>
-      </c>
-      <c r="B55">
-        <v>5</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>4</v>
-      </c>
-      <c r="B56">
-        <v>7</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56">
-        <v>2</v>
-      </c>
-      <c r="E56">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>5</v>
-      </c>
-      <c r="B57">
-        <v>16</v>
-      </c>
-      <c r="C57">
-        <v>2</v>
-      </c>
-      <c r="D57">
-        <v>6</v>
-      </c>
-      <c r="E57">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>6</v>
-      </c>
-      <c r="B58">
-        <v>21</v>
-      </c>
-      <c r="C58">
-        <v>4</v>
-      </c>
-      <c r="D58">
-        <v>8</v>
-      </c>
-      <c r="E58">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>7</v>
-      </c>
-      <c r="B59">
-        <v>11</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59">
-        <v>3</v>
-      </c>
-      <c r="E59">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>8</v>
-      </c>
-      <c r="B60">
-        <v>62</v>
-      </c>
-      <c r="C60">
-        <v>9</v>
-      </c>
-      <c r="D60">
+      <c r="C61">
         <v>20</v>
       </c>
-      <c r="E60">
-        <v>33</v>
+      <c r="D61">
+        <v>20</v>
+      </c>
+      <c r="E61">
+        <f>SUM(B61,C61,D61)</f>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -7800,12 +7700,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2">
         <v>118</v>
@@ -7821,12 +7721,12 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6">
         <v>9</v>
@@ -7834,7 +7734,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7">
         <v>31</v>
@@ -7842,7 +7742,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8">
         <v>41</v>
@@ -7850,7 +7750,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9">
         <v>37</v>
@@ -7866,12 +7766,12 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -7903,12 +7803,12 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B19">
         <v>72</v>
@@ -7916,7 +7816,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -7924,7 +7824,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B21">
         <v>42</v>
@@ -7932,7 +7832,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -7948,7 +7848,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -7961,7 +7861,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B27">
         <v>11</v>
@@ -7969,7 +7869,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B28">
         <v>36</v>
@@ -7977,7 +7877,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B29">
         <v>71</v>
@@ -7985,12 +7885,12 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B32">
         <v>16</v>
@@ -7998,7 +7898,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B33">
         <v>67</v>
@@ -8006,7 +7906,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B34">
         <v>32</v>
@@ -8014,7 +7914,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B35">
         <v>53</v>
@@ -8022,7 +7922,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B36">
         <v>76</v>
@@ -8030,7 +7930,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B37">
         <v>31</v>
@@ -8038,7 +7938,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B38">
         <v>33</v>
@@ -8046,7 +7946,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B39">
         <v>5</v>
@@ -8062,12 +7962,12 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B43">
         <v>21</v>
@@ -8075,7 +7975,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B44">
         <v>38</v>
@@ -8083,7 +7983,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B45">
         <v>57</v>
@@ -8091,7 +7991,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B46">
         <v>77</v>
@@ -8099,7 +7999,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B47">
         <v>16</v>
@@ -8107,7 +8007,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B48">
         <v>25</v>
@@ -8115,7 +8015,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B49">
         <v>3</v>
@@ -8123,7 +8023,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B50">
         <v>31</v>
@@ -8131,7 +8031,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B51">
         <v>9</v>
@@ -8139,7 +8039,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B52">
         <v>72</v>
@@ -8147,7 +8047,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B53">
         <v>67</v>
@@ -8155,7 +8055,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B54">
         <v>32</v>
@@ -8163,7 +8063,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B55">
         <v>18</v>
@@ -8171,7 +8071,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B56">
         <v>56</v>
@@ -8179,7 +8079,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B57">
         <v>6</v>
@@ -8187,7 +8087,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B58">
         <v>56</v>
@@ -8203,7 +8103,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -8216,7 +8116,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B65">
         <v>35</v>
@@ -8224,7 +8124,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B66">
         <v>52</v>
@@ -8232,7 +8132,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B67">
         <v>2</v>
@@ -8240,7 +8140,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B68">
         <v>29</v>
@@ -8248,7 +8148,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -8261,7 +8161,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B72">
         <v>60</v>
@@ -8269,7 +8169,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B73">
         <v>52</v>
@@ -8277,7 +8177,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B74">
         <v>6</v>
@@ -8285,12 +8185,12 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B77">
         <v>76</v>
@@ -8298,7 +8198,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B78">
         <v>9</v>
@@ -8306,7 +8206,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B79">
         <v>19</v>
@@ -8314,7 +8214,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B80">
         <v>21</v>
@@ -8338,7 +8238,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B83">
         <v>21</v>
@@ -8346,7 +8246,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B84">
         <v>70</v>
@@ -8354,7 +8254,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B85">
         <v>60</v>
@@ -8362,12 +8262,12 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B88">
         <v>7</v>
@@ -8375,7 +8275,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B89">
         <v>61</v>
@@ -8383,7 +8283,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B90">
         <v>23</v>
@@ -8391,7 +8291,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B91">
         <v>27</v>
@@ -8399,7 +8299,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B92">
         <v>2</v>
@@ -8407,7 +8307,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B93">
         <v>63</v>
@@ -8415,7 +8315,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B94">
         <v>32</v>
@@ -8423,7 +8323,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B95">
         <v>21</v>
@@ -8431,7 +8331,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -8439,7 +8339,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>50</v>
@@ -8447,7 +8347,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B98">
         <v>13</v>
@@ -8455,7 +8355,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>53</v>
@@ -8463,7 +8363,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>48</v>
@@ -8471,7 +8371,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B101">
         <v>11</v>
@@ -8479,7 +8379,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>59</v>
@@ -8487,7 +8387,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>54</v>
@@ -8495,7 +8395,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>39</v>
@@ -8503,7 +8403,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B105">
         <v>25</v>
@@ -8519,7 +8419,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -8527,7 +8427,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -8535,7 +8435,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -8548,7 +8448,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B112">
         <v>47</v>
@@ -8556,7 +8456,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B113">
         <v>45</v>
@@ -8564,7 +8464,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B114">
         <v>3</v>
@@ -8572,7 +8472,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B115">
         <v>2</v>
@@ -8580,7 +8480,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B116">
         <v>21</v>
@@ -8588,13 +8488,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>136</v>
+      </c>
+      <c r="C118" t="s">
         <v>137</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>138</v>
-      </c>
-      <c r="D118" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
